--- a/TARJETA DE LIQUIDACION chacabamba/TARJETAS-MICROCUENCA CHACABAMBAd/TARJETA-2015.xlsx
+++ b/TARJETA DE LIQUIDACION chacabamba/TARJETAS-MICROCUENCA CHACABAMBAd/TARJETA-2015.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" tabRatio="699" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" tabRatio="699" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MODELO" sheetId="1" state="hidden" r:id="rId1"/>
@@ -4330,22 +4330,19 @@
     <xf numFmtId="165" fontId="4" fillId="2" borderId="13" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4357,14 +4354,11 @@
     <xf numFmtId="14" fontId="9" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4375,16 +4369,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -4408,32 +4408,41 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="22" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="22" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4459,18 +4468,6 @@
     <xf numFmtId="4" fontId="22" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4488,6 +4485,9 @@
     </xf>
     <xf numFmtId="4" fontId="22" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4816,42 +4816,42 @@
   <sheetData>
     <row r="1" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="204" t="s">
+      <c r="A2" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="204"/>
-      <c r="C2" s="204"/>
-      <c r="D2" s="204"/>
-      <c r="E2" s="204"/>
-      <c r="F2" s="204"/>
-      <c r="G2" s="204"/>
-      <c r="H2" s="204"/>
-      <c r="I2" s="204"/>
-      <c r="J2" s="204"/>
-      <c r="K2" s="204"/>
-      <c r="L2" s="204"/>
-      <c r="M2" s="204"/>
-      <c r="N2" s="204"/>
-      <c r="O2" s="204"/>
+      <c r="B2" s="195"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="195"/>
+      <c r="L2" s="195"/>
+      <c r="M2" s="195"/>
+      <c r="N2" s="195"/>
+      <c r="O2" s="195"/>
     </row>
     <row r="3" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="205" t="s">
+      <c r="A3" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="205"/>
-      <c r="C3" s="205"/>
-      <c r="D3" s="205"/>
-      <c r="E3" s="205"/>
-      <c r="F3" s="205"/>
-      <c r="G3" s="205"/>
-      <c r="H3" s="205"/>
-      <c r="I3" s="205"/>
-      <c r="J3" s="205"/>
-      <c r="K3" s="205"/>
-      <c r="L3" s="205"/>
-      <c r="M3" s="205"/>
-      <c r="N3" s="205"/>
-      <c r="O3" s="205"/>
+      <c r="B3" s="196"/>
+      <c r="C3" s="196"/>
+      <c r="D3" s="196"/>
+      <c r="E3" s="196"/>
+      <c r="F3" s="196"/>
+      <c r="G3" s="196"/>
+      <c r="H3" s="196"/>
+      <c r="I3" s="196"/>
+      <c r="J3" s="196"/>
+      <c r="K3" s="196"/>
+      <c r="L3" s="196"/>
+      <c r="M3" s="196"/>
+      <c r="N3" s="196"/>
+      <c r="O3" s="196"/>
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -4871,23 +4871,23 @@
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="195" t="s">
+      <c r="A5" s="213" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="195"/>
-      <c r="C5" s="195"/>
-      <c r="D5" s="195"/>
-      <c r="E5" s="195"/>
-      <c r="F5" s="195"/>
-      <c r="G5" s="195"/>
-      <c r="H5" s="195"/>
-      <c r="I5" s="195"/>
-      <c r="J5" s="195"/>
-      <c r="K5" s="195"/>
-      <c r="L5" s="195"/>
-      <c r="M5" s="195"/>
-      <c r="N5" s="195"/>
-      <c r="O5" s="195"/>
+      <c r="B5" s="213"/>
+      <c r="C5" s="213"/>
+      <c r="D5" s="213"/>
+      <c r="E5" s="213"/>
+      <c r="F5" s="213"/>
+      <c r="G5" s="213"/>
+      <c r="H5" s="213"/>
+      <c r="I5" s="213"/>
+      <c r="J5" s="213"/>
+      <c r="K5" s="213"/>
+      <c r="L5" s="213"/>
+      <c r="M5" s="213"/>
+      <c r="N5" s="213"/>
+      <c r="O5" s="213"/>
     </row>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -5010,38 +5010,38 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="206" t="s">
+      <c r="A12" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="207" t="s">
+      <c r="B12" s="205" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="207"/>
-      <c r="D12" s="207"/>
-      <c r="E12" s="208" t="s">
+      <c r="C12" s="205"/>
+      <c r="D12" s="205"/>
+      <c r="E12" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="208" t="s">
+      <c r="F12" s="206" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="199" t="s">
+      <c r="G12" s="208" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="196" t="s">
+      <c r="H12" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="197"/>
-      <c r="J12" s="197"/>
-      <c r="K12" s="197"/>
-      <c r="L12" s="197"/>
-      <c r="M12" s="197"/>
-      <c r="N12" s="198"/>
-      <c r="O12" s="199" t="s">
+      <c r="I12" s="211"/>
+      <c r="J12" s="211"/>
+      <c r="K12" s="211"/>
+      <c r="L12" s="211"/>
+      <c r="M12" s="211"/>
+      <c r="N12" s="212"/>
+      <c r="O12" s="208" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="200"/>
+      <c r="A13" s="204"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -5051,9 +5051,9 @@
       <c r="D13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="209"/>
-      <c r="F13" s="210"/>
-      <c r="G13" s="200"/>
+      <c r="E13" s="207"/>
+      <c r="F13" s="209"/>
+      <c r="G13" s="204"/>
       <c r="H13" s="2" t="s">
         <v>22</v>
       </c>
@@ -5075,7 +5075,7 @@
       <c r="N13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O13" s="200"/>
+      <c r="O13" s="204"/>
     </row>
     <row r="14" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="113" t="s">
@@ -5646,14 +5646,14 @@
       </c>
     </row>
     <row r="32" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="201" t="s">
+      <c r="A32" s="200" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="202"/>
-      <c r="C32" s="202"/>
-      <c r="D32" s="202"/>
-      <c r="E32" s="202"/>
-      <c r="F32" s="203"/>
+      <c r="B32" s="201"/>
+      <c r="C32" s="201"/>
+      <c r="D32" s="201"/>
+      <c r="E32" s="201"/>
+      <c r="F32" s="202"/>
       <c r="G32" s="29">
         <f>SUM(G14:G31)</f>
         <v>3930</v>
@@ -5686,42 +5686,42 @@
       <c r="O34" s="1"/>
     </row>
     <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="204" t="s">
+      <c r="A35" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="204"/>
-      <c r="C35" s="204"/>
-      <c r="D35" s="204"/>
-      <c r="E35" s="204"/>
-      <c r="F35" s="204"/>
-      <c r="G35" s="204"/>
-      <c r="H35" s="204"/>
-      <c r="I35" s="204"/>
-      <c r="J35" s="204"/>
-      <c r="K35" s="204"/>
-      <c r="L35" s="204"/>
-      <c r="M35" s="204"/>
-      <c r="N35" s="204"/>
-      <c r="O35" s="204"/>
+      <c r="B35" s="195"/>
+      <c r="C35" s="195"/>
+      <c r="D35" s="195"/>
+      <c r="E35" s="195"/>
+      <c r="F35" s="195"/>
+      <c r="G35" s="195"/>
+      <c r="H35" s="195"/>
+      <c r="I35" s="195"/>
+      <c r="J35" s="195"/>
+      <c r="K35" s="195"/>
+      <c r="L35" s="195"/>
+      <c r="M35" s="195"/>
+      <c r="N35" s="195"/>
+      <c r="O35" s="195"/>
     </row>
     <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="205" t="s">
+      <c r="A36" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="205"/>
-      <c r="C36" s="205"/>
-      <c r="D36" s="205"/>
-      <c r="E36" s="205"/>
-      <c r="F36" s="205"/>
-      <c r="G36" s="205"/>
-      <c r="H36" s="205"/>
-      <c r="I36" s="205"/>
-      <c r="J36" s="205"/>
-      <c r="K36" s="205"/>
-      <c r="L36" s="205"/>
-      <c r="M36" s="205"/>
-      <c r="N36" s="205"/>
-      <c r="O36" s="205"/>
+      <c r="B36" s="196"/>
+      <c r="C36" s="196"/>
+      <c r="D36" s="196"/>
+      <c r="E36" s="196"/>
+      <c r="F36" s="196"/>
+      <c r="G36" s="196"/>
+      <c r="H36" s="196"/>
+      <c r="I36" s="196"/>
+      <c r="J36" s="196"/>
+      <c r="K36" s="196"/>
+      <c r="L36" s="196"/>
+      <c r="M36" s="196"/>
+      <c r="N36" s="196"/>
+      <c r="O36" s="196"/>
     </row>
     <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
@@ -5844,38 +5844,38 @@
       </c>
     </row>
     <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="206" t="s">
+      <c r="A43" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="207" t="s">
+      <c r="B43" s="205" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="207"/>
-      <c r="D43" s="207"/>
-      <c r="E43" s="208" t="s">
+      <c r="C43" s="205"/>
+      <c r="D43" s="205"/>
+      <c r="E43" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="F43" s="208" t="s">
+      <c r="F43" s="206" t="s">
         <v>11</v>
       </c>
-      <c r="G43" s="199" t="s">
+      <c r="G43" s="208" t="s">
         <v>12</v>
       </c>
-      <c r="H43" s="196" t="s">
+      <c r="H43" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="I43" s="197"/>
-      <c r="J43" s="197"/>
-      <c r="K43" s="197"/>
-      <c r="L43" s="197"/>
-      <c r="M43" s="197"/>
-      <c r="N43" s="198"/>
-      <c r="O43" s="199" t="s">
+      <c r="I43" s="211"/>
+      <c r="J43" s="211"/>
+      <c r="K43" s="211"/>
+      <c r="L43" s="211"/>
+      <c r="M43" s="211"/>
+      <c r="N43" s="212"/>
+      <c r="O43" s="208" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="200"/>
+      <c r="A44" s="204"/>
       <c r="B44" s="2" t="s">
         <v>14</v>
       </c>
@@ -5885,9 +5885,9 @@
       <c r="D44" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="209"/>
-      <c r="F44" s="210"/>
-      <c r="G44" s="200"/>
+      <c r="E44" s="207"/>
+      <c r="F44" s="209"/>
+      <c r="G44" s="204"/>
       <c r="H44" s="2" t="s">
         <v>22</v>
       </c>
@@ -5909,17 +5909,17 @@
       <c r="N44" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O44" s="200"/>
+      <c r="O44" s="204"/>
     </row>
     <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="211" t="s">
+      <c r="A45" s="197" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="212"/>
-      <c r="C45" s="212"/>
-      <c r="D45" s="212"/>
-      <c r="E45" s="212"/>
-      <c r="F45" s="213"/>
+      <c r="B45" s="198"/>
+      <c r="C45" s="198"/>
+      <c r="D45" s="198"/>
+      <c r="E45" s="198"/>
+      <c r="F45" s="199"/>
       <c r="G45" s="29">
         <f>G32</f>
         <v>3930</v>
@@ -6374,14 +6374,14 @@
       <c r="O65" s="17"/>
     </row>
     <row r="66" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="201" t="s">
+      <c r="A66" s="200" t="s">
         <v>17</v>
       </c>
-      <c r="B66" s="202"/>
-      <c r="C66" s="202"/>
-      <c r="D66" s="202"/>
-      <c r="E66" s="202"/>
-      <c r="F66" s="203"/>
+      <c r="B66" s="201"/>
+      <c r="C66" s="201"/>
+      <c r="D66" s="201"/>
+      <c r="E66" s="201"/>
+      <c r="F66" s="202"/>
       <c r="G66" s="29">
         <f>SUM(G45:G65)</f>
         <v>3930</v>
@@ -6414,42 +6414,42 @@
       <c r="O68" s="1"/>
     </row>
     <row r="69" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="204" t="s">
+      <c r="A69" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="B69" s="204"/>
-      <c r="C69" s="204"/>
-      <c r="D69" s="204"/>
-      <c r="E69" s="204"/>
-      <c r="F69" s="204"/>
-      <c r="G69" s="204"/>
-      <c r="H69" s="204"/>
-      <c r="I69" s="204"/>
-      <c r="J69" s="204"/>
-      <c r="K69" s="204"/>
-      <c r="L69" s="204"/>
-      <c r="M69" s="204"/>
-      <c r="N69" s="204"/>
-      <c r="O69" s="204"/>
+      <c r="B69" s="195"/>
+      <c r="C69" s="195"/>
+      <c r="D69" s="195"/>
+      <c r="E69" s="195"/>
+      <c r="F69" s="195"/>
+      <c r="G69" s="195"/>
+      <c r="H69" s="195"/>
+      <c r="I69" s="195"/>
+      <c r="J69" s="195"/>
+      <c r="K69" s="195"/>
+      <c r="L69" s="195"/>
+      <c r="M69" s="195"/>
+      <c r="N69" s="195"/>
+      <c r="O69" s="195"/>
     </row>
     <row r="70" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="205" t="s">
+      <c r="A70" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="B70" s="205"/>
-      <c r="C70" s="205"/>
-      <c r="D70" s="205"/>
-      <c r="E70" s="205"/>
-      <c r="F70" s="205"/>
-      <c r="G70" s="205"/>
-      <c r="H70" s="205"/>
-      <c r="I70" s="205"/>
-      <c r="J70" s="205"/>
-      <c r="K70" s="205"/>
-      <c r="L70" s="205"/>
-      <c r="M70" s="205"/>
-      <c r="N70" s="205"/>
-      <c r="O70" s="205"/>
+      <c r="B70" s="196"/>
+      <c r="C70" s="196"/>
+      <c r="D70" s="196"/>
+      <c r="E70" s="196"/>
+      <c r="F70" s="196"/>
+      <c r="G70" s="196"/>
+      <c r="H70" s="196"/>
+      <c r="I70" s="196"/>
+      <c r="J70" s="196"/>
+      <c r="K70" s="196"/>
+      <c r="L70" s="196"/>
+      <c r="M70" s="196"/>
+      <c r="N70" s="196"/>
+      <c r="O70" s="196"/>
     </row>
     <row r="71" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
@@ -6572,38 +6572,38 @@
       </c>
     </row>
     <row r="77" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="206" t="s">
+      <c r="A77" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="B77" s="207" t="s">
+      <c r="B77" s="205" t="s">
         <v>9</v>
       </c>
-      <c r="C77" s="207"/>
-      <c r="D77" s="207"/>
-      <c r="E77" s="208" t="s">
+      <c r="C77" s="205"/>
+      <c r="D77" s="205"/>
+      <c r="E77" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="F77" s="208" t="s">
+      <c r="F77" s="206" t="s">
         <v>11</v>
       </c>
-      <c r="G77" s="199" t="s">
+      <c r="G77" s="208" t="s">
         <v>12</v>
       </c>
-      <c r="H77" s="196" t="s">
+      <c r="H77" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="I77" s="197"/>
-      <c r="J77" s="197"/>
-      <c r="K77" s="197"/>
-      <c r="L77" s="197"/>
-      <c r="M77" s="197"/>
-      <c r="N77" s="198"/>
-      <c r="O77" s="199" t="s">
+      <c r="I77" s="211"/>
+      <c r="J77" s="211"/>
+      <c r="K77" s="211"/>
+      <c r="L77" s="211"/>
+      <c r="M77" s="211"/>
+      <c r="N77" s="212"/>
+      <c r="O77" s="208" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="200"/>
+      <c r="A78" s="204"/>
       <c r="B78" s="2" t="s">
         <v>14</v>
       </c>
@@ -6613,9 +6613,9 @@
       <c r="D78" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="209"/>
-      <c r="F78" s="210"/>
-      <c r="G78" s="200"/>
+      <c r="E78" s="207"/>
+      <c r="F78" s="209"/>
+      <c r="G78" s="204"/>
       <c r="H78" s="2" t="s">
         <v>22</v>
       </c>
@@ -6637,17 +6637,17 @@
       <c r="N78" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O78" s="200"/>
+      <c r="O78" s="204"/>
     </row>
     <row r="79" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="211" t="s">
+      <c r="A79" s="197" t="s">
         <v>18</v>
       </c>
-      <c r="B79" s="212"/>
-      <c r="C79" s="212"/>
-      <c r="D79" s="212"/>
-      <c r="E79" s="212"/>
-      <c r="F79" s="213"/>
+      <c r="B79" s="198"/>
+      <c r="C79" s="198"/>
+      <c r="D79" s="198"/>
+      <c r="E79" s="198"/>
+      <c r="F79" s="199"/>
       <c r="G79" s="29">
         <f>G66</f>
         <v>3930</v>
@@ -7080,14 +7080,14 @@
       <c r="O98" s="22"/>
     </row>
     <row r="99" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="201" t="s">
+      <c r="A99" s="200" t="s">
         <v>19</v>
       </c>
-      <c r="B99" s="202"/>
-      <c r="C99" s="202"/>
-      <c r="D99" s="202"/>
-      <c r="E99" s="202"/>
-      <c r="F99" s="203"/>
+      <c r="B99" s="201"/>
+      <c r="C99" s="201"/>
+      <c r="D99" s="201"/>
+      <c r="E99" s="201"/>
+      <c r="F99" s="202"/>
       <c r="G99" s="29">
         <f>SUM(G79:G98)</f>
         <v>3930</v>
@@ -7173,42 +7173,42 @@
       <c r="O104" s="1"/>
     </row>
     <row r="105" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="204" t="s">
+      <c r="A105" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="B105" s="204"/>
-      <c r="C105" s="204"/>
-      <c r="D105" s="204"/>
-      <c r="E105" s="204"/>
-      <c r="F105" s="204"/>
-      <c r="G105" s="204"/>
-      <c r="H105" s="204"/>
-      <c r="I105" s="204"/>
-      <c r="J105" s="204"/>
-      <c r="K105" s="204"/>
-      <c r="L105" s="204"/>
-      <c r="M105" s="204"/>
-      <c r="N105" s="204"/>
-      <c r="O105" s="204"/>
+      <c r="B105" s="195"/>
+      <c r="C105" s="195"/>
+      <c r="D105" s="195"/>
+      <c r="E105" s="195"/>
+      <c r="F105" s="195"/>
+      <c r="G105" s="195"/>
+      <c r="H105" s="195"/>
+      <c r="I105" s="195"/>
+      <c r="J105" s="195"/>
+      <c r="K105" s="195"/>
+      <c r="L105" s="195"/>
+      <c r="M105" s="195"/>
+      <c r="N105" s="195"/>
+      <c r="O105" s="195"/>
     </row>
     <row r="106" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="205" t="s">
+      <c r="A106" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="B106" s="205"/>
-      <c r="C106" s="205"/>
-      <c r="D106" s="205"/>
-      <c r="E106" s="205"/>
-      <c r="F106" s="205"/>
-      <c r="G106" s="205"/>
-      <c r="H106" s="205"/>
-      <c r="I106" s="205"/>
-      <c r="J106" s="205"/>
-      <c r="K106" s="205"/>
-      <c r="L106" s="205"/>
-      <c r="M106" s="205"/>
-      <c r="N106" s="205"/>
-      <c r="O106" s="205"/>
+      <c r="B106" s="196"/>
+      <c r="C106" s="196"/>
+      <c r="D106" s="196"/>
+      <c r="E106" s="196"/>
+      <c r="F106" s="196"/>
+      <c r="G106" s="196"/>
+      <c r="H106" s="196"/>
+      <c r="I106" s="196"/>
+      <c r="J106" s="196"/>
+      <c r="K106" s="196"/>
+      <c r="L106" s="196"/>
+      <c r="M106" s="196"/>
+      <c r="N106" s="196"/>
+      <c r="O106" s="196"/>
     </row>
     <row r="107" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
@@ -7228,23 +7228,23 @@
       <c r="O107" s="3"/>
     </row>
     <row r="108" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="195" t="s">
+      <c r="A108" s="213" t="s">
         <v>23</v>
       </c>
-      <c r="B108" s="195"/>
-      <c r="C108" s="195"/>
-      <c r="D108" s="195"/>
-      <c r="E108" s="195"/>
-      <c r="F108" s="195"/>
-      <c r="G108" s="195"/>
-      <c r="H108" s="195"/>
-      <c r="I108" s="195"/>
-      <c r="J108" s="195"/>
-      <c r="K108" s="195"/>
-      <c r="L108" s="195"/>
-      <c r="M108" s="195"/>
-      <c r="N108" s="195"/>
-      <c r="O108" s="195"/>
+      <c r="B108" s="213"/>
+      <c r="C108" s="213"/>
+      <c r="D108" s="213"/>
+      <c r="E108" s="213"/>
+      <c r="F108" s="213"/>
+      <c r="G108" s="213"/>
+      <c r="H108" s="213"/>
+      <c r="I108" s="213"/>
+      <c r="J108" s="213"/>
+      <c r="K108" s="213"/>
+      <c r="L108" s="213"/>
+      <c r="M108" s="213"/>
+      <c r="N108" s="213"/>
+      <c r="O108" s="213"/>
     </row>
     <row r="109" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
@@ -7367,38 +7367,38 @@
       </c>
     </row>
     <row r="115" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="206" t="s">
+      <c r="A115" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="B115" s="207" t="s">
+      <c r="B115" s="205" t="s">
         <v>9</v>
       </c>
-      <c r="C115" s="207"/>
-      <c r="D115" s="207"/>
-      <c r="E115" s="208" t="s">
+      <c r="C115" s="205"/>
+      <c r="D115" s="205"/>
+      <c r="E115" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="F115" s="208" t="s">
+      <c r="F115" s="206" t="s">
         <v>11</v>
       </c>
-      <c r="G115" s="199" t="s">
+      <c r="G115" s="208" t="s">
         <v>12</v>
       </c>
-      <c r="H115" s="196" t="s">
+      <c r="H115" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="I115" s="197"/>
-      <c r="J115" s="197"/>
-      <c r="K115" s="197"/>
-      <c r="L115" s="197"/>
-      <c r="M115" s="197"/>
-      <c r="N115" s="198"/>
-      <c r="O115" s="199" t="s">
+      <c r="I115" s="211"/>
+      <c r="J115" s="211"/>
+      <c r="K115" s="211"/>
+      <c r="L115" s="211"/>
+      <c r="M115" s="211"/>
+      <c r="N115" s="212"/>
+      <c r="O115" s="208" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="116" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="200"/>
+      <c r="A116" s="204"/>
       <c r="B116" s="2" t="s">
         <v>14</v>
       </c>
@@ -7408,9 +7408,9 @@
       <c r="D116" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E116" s="209"/>
-      <c r="F116" s="210"/>
-      <c r="G116" s="200"/>
+      <c r="E116" s="207"/>
+      <c r="F116" s="209"/>
+      <c r="G116" s="204"/>
       <c r="H116" s="2" t="s">
         <v>22</v>
       </c>
@@ -7432,7 +7432,7 @@
       <c r="N116" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O116" s="200"/>
+      <c r="O116" s="204"/>
     </row>
     <row r="117" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
@@ -7561,14 +7561,14 @@
       <c r="O121" s="17"/>
     </row>
     <row r="122" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="201" t="s">
+      <c r="A122" s="200" t="s">
         <v>19</v>
       </c>
-      <c r="B122" s="202"/>
-      <c r="C122" s="202"/>
-      <c r="D122" s="202"/>
-      <c r="E122" s="202"/>
-      <c r="F122" s="203"/>
+      <c r="B122" s="201"/>
+      <c r="C122" s="201"/>
+      <c r="D122" s="201"/>
+      <c r="E122" s="201"/>
+      <c r="F122" s="202"/>
       <c r="G122" s="29">
         <f>SUM(G117:G121)</f>
         <v>50</v>
@@ -7611,6 +7611,34 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="44">
+    <mergeCell ref="A108:O108"/>
+    <mergeCell ref="H115:N115"/>
+    <mergeCell ref="O115:O116"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="A69:O69"/>
+    <mergeCell ref="A70:O70"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H77:N77"/>
+    <mergeCell ref="O77:O78"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="G115:G116"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A35:O35"/>
+    <mergeCell ref="A36:O36"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:N43"/>
+    <mergeCell ref="O43:O44"/>
     <mergeCell ref="A105:O105"/>
     <mergeCell ref="A106:O106"/>
     <mergeCell ref="A45:F45"/>
@@ -7627,34 +7655,6 @@
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A35:O35"/>
-    <mergeCell ref="A36:O36"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:N43"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="G115:G116"/>
-    <mergeCell ref="A108:O108"/>
-    <mergeCell ref="H115:N115"/>
-    <mergeCell ref="O115:O116"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="A5:O5"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="A69:O69"/>
-    <mergeCell ref="A70:O70"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="H77:N77"/>
-    <mergeCell ref="O77:O78"/>
-    <mergeCell ref="A79:F79"/>
   </mergeCells>
   <pageMargins left="0.47244094488188981" right="0.47244094488188981" top="0.62992125984251968" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="61" orientation="landscape" r:id="rId1"/>
@@ -7692,46 +7692,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="204" t="s">
+      <c r="A2" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="204"/>
-      <c r="C2" s="204"/>
+      <c r="B2" s="195"/>
+      <c r="C2" s="195"/>
       <c r="D2" s="214"/>
-      <c r="E2" s="204"/>
-      <c r="F2" s="204"/>
-      <c r="G2" s="204"/>
-      <c r="H2" s="204"/>
-      <c r="I2" s="204"/>
-      <c r="J2" s="204"/>
-      <c r="K2" s="204"/>
-      <c r="L2" s="204"/>
-      <c r="M2" s="204"/>
-      <c r="N2" s="204"/>
-      <c r="O2" s="204"/>
-      <c r="P2" s="204"/>
-      <c r="Q2" s="204"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="195"/>
+      <c r="L2" s="195"/>
+      <c r="M2" s="195"/>
+      <c r="N2" s="195"/>
+      <c r="O2" s="195"/>
+      <c r="P2" s="195"/>
+      <c r="Q2" s="195"/>
     </row>
     <row r="3" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="205" t="s">
+      <c r="A3" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="205"/>
-      <c r="C3" s="205"/>
+      <c r="B3" s="196"/>
+      <c r="C3" s="196"/>
       <c r="D3" s="215"/>
-      <c r="E3" s="205"/>
-      <c r="F3" s="205"/>
-      <c r="G3" s="205"/>
-      <c r="H3" s="205"/>
-      <c r="I3" s="205"/>
-      <c r="J3" s="205"/>
-      <c r="K3" s="205"/>
-      <c r="L3" s="205"/>
-      <c r="M3" s="205"/>
-      <c r="N3" s="205"/>
-      <c r="O3" s="205"/>
-      <c r="P3" s="205"/>
-      <c r="Q3" s="205"/>
+      <c r="E3" s="196"/>
+      <c r="F3" s="196"/>
+      <c r="G3" s="196"/>
+      <c r="H3" s="196"/>
+      <c r="I3" s="196"/>
+      <c r="J3" s="196"/>
+      <c r="K3" s="196"/>
+      <c r="L3" s="196"/>
+      <c r="M3" s="196"/>
+      <c r="N3" s="196"/>
+      <c r="O3" s="196"/>
+      <c r="P3" s="196"/>
+      <c r="Q3" s="196"/>
     </row>
     <row r="4" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -7753,25 +7753,25 @@
       <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="195" t="s">
+      <c r="A5" s="213" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="195"/>
-      <c r="C5" s="195"/>
+      <c r="B5" s="213"/>
+      <c r="C5" s="213"/>
       <c r="D5" s="216"/>
-      <c r="E5" s="195"/>
-      <c r="F5" s="195"/>
-      <c r="G5" s="195"/>
-      <c r="H5" s="195"/>
-      <c r="I5" s="195"/>
-      <c r="J5" s="195"/>
-      <c r="K5" s="195"/>
-      <c r="L5" s="195"/>
-      <c r="M5" s="195"/>
-      <c r="N5" s="195"/>
-      <c r="O5" s="195"/>
-      <c r="P5" s="195"/>
-      <c r="Q5" s="195"/>
+      <c r="E5" s="213"/>
+      <c r="F5" s="213"/>
+      <c r="G5" s="213"/>
+      <c r="H5" s="213"/>
+      <c r="I5" s="213"/>
+      <c r="J5" s="213"/>
+      <c r="K5" s="213"/>
+      <c r="L5" s="213"/>
+      <c r="M5" s="213"/>
+      <c r="N5" s="213"/>
+      <c r="O5" s="213"/>
+      <c r="P5" s="213"/>
+      <c r="Q5" s="213"/>
     </row>
     <row r="6" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -7906,13 +7906,13 @@
       </c>
     </row>
     <row r="12" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="206" t="s">
+      <c r="A12" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="207" t="s">
+      <c r="B12" s="205" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="207"/>
+      <c r="C12" s="205"/>
       <c r="D12" s="217"/>
       <c r="E12" s="156" t="s">
         <v>10</v>
@@ -7939,7 +7939,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="200"/>
+      <c r="A13" s="204"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -26789,14 +26789,14 @@
       <c r="S367" s="161"/>
     </row>
     <row r="368" spans="1:19" ht="37.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A368" s="201" t="s">
+      <c r="A368" s="200" t="s">
         <v>510</v>
       </c>
-      <c r="B368" s="202"/>
-      <c r="C368" s="202"/>
-      <c r="D368" s="202"/>
-      <c r="E368" s="202"/>
-      <c r="F368" s="203"/>
+      <c r="B368" s="201"/>
+      <c r="C368" s="201"/>
+      <c r="D368" s="201"/>
+      <c r="E368" s="201"/>
+      <c r="F368" s="202"/>
       <c r="G368" s="18">
         <f t="shared" ref="G368:O368" si="7">SUM(G14:G367)</f>
         <v>3115846.3199999994</v>
@@ -26898,8 +26898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L23"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A6" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26919,34 +26919,34 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="204" t="s">
+      <c r="A3" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="204"/>
-      <c r="C3" s="204"/>
+      <c r="B3" s="195"/>
+      <c r="C3" s="195"/>
       <c r="D3" s="214"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="204"/>
+      <c r="E3" s="195"/>
+      <c r="F3" s="195"/>
+      <c r="G3" s="195"/>
+      <c r="H3" s="195"/>
+      <c r="I3" s="195"/>
+      <c r="J3" s="195"/>
+      <c r="K3" s="195"/>
     </row>
     <row r="4" spans="1:11" ht="27" x14ac:dyDescent="0.25">
-      <c r="A4" s="205" t="s">
+      <c r="A4" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="205"/>
-      <c r="C4" s="205"/>
+      <c r="B4" s="196"/>
+      <c r="C4" s="196"/>
       <c r="D4" s="215"/>
-      <c r="E4" s="205"/>
-      <c r="F4" s="205"/>
-      <c r="G4" s="205"/>
-      <c r="H4" s="205"/>
-      <c r="I4" s="205"/>
-      <c r="J4" s="205"/>
-      <c r="K4" s="205"/>
+      <c r="E4" s="196"/>
+      <c r="F4" s="196"/>
+      <c r="G4" s="196"/>
+      <c r="H4" s="196"/>
+      <c r="I4" s="196"/>
+      <c r="J4" s="196"/>
+      <c r="K4" s="196"/>
     </row>
     <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
@@ -26962,19 +26962,19 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="195" t="s">
+      <c r="A6" s="213" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="195"/>
-      <c r="C6" s="195"/>
+      <c r="B6" s="213"/>
+      <c r="C6" s="213"/>
       <c r="D6" s="216"/>
-      <c r="E6" s="195"/>
-      <c r="F6" s="195"/>
-      <c r="G6" s="195"/>
-      <c r="H6" s="195"/>
-      <c r="I6" s="195"/>
-      <c r="J6" s="195"/>
-      <c r="K6" s="195"/>
+      <c r="E6" s="213"/>
+      <c r="F6" s="213"/>
+      <c r="G6" s="213"/>
+      <c r="H6" s="213"/>
+      <c r="I6" s="213"/>
+      <c r="J6" s="213"/>
+      <c r="K6" s="213"/>
     </row>
     <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
@@ -27009,42 +27009,42 @@
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="221" t="s">
+      <c r="A9" s="223" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="221"/>
+      <c r="B9" s="223"/>
       <c r="C9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="223" t="s">
+      <c r="D9" s="221" t="s">
         <v>800</v>
       </c>
-      <c r="E9" s="223"/>
-      <c r="F9" s="223"/>
-      <c r="G9" s="223"/>
-      <c r="H9" s="223"/>
-      <c r="I9" s="223"/>
-      <c r="J9" s="223"/>
-      <c r="K9" s="223"/>
+      <c r="E9" s="221"/>
+      <c r="F9" s="221"/>
+      <c r="G9" s="221"/>
+      <c r="H9" s="221"/>
+      <c r="I9" s="221"/>
+      <c r="J9" s="221"/>
+      <c r="K9" s="221"/>
     </row>
     <row r="10" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="221" t="s">
+      <c r="A10" s="223" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="221"/>
+      <c r="B10" s="223"/>
       <c r="C10" s="192" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="223" t="s">
+      <c r="D10" s="221" t="s">
         <v>801</v>
       </c>
-      <c r="E10" s="223"/>
-      <c r="F10" s="223"/>
-      <c r="G10" s="223"/>
-      <c r="H10" s="223"/>
-      <c r="I10" s="223"/>
-      <c r="J10" s="223"/>
-      <c r="K10" s="223"/>
+      <c r="E10" s="221"/>
+      <c r="F10" s="221"/>
+      <c r="G10" s="221"/>
+      <c r="H10" s="221"/>
+      <c r="I10" s="221"/>
+      <c r="J10" s="221"/>
+      <c r="K10" s="221"/>
     </row>
     <row r="11" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="222" t="s">
@@ -27081,32 +27081,32 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="206" t="s">
+      <c r="A13" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="207" t="s">
+      <c r="B13" s="205" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="207"/>
+      <c r="C13" s="205"/>
       <c r="D13" s="217"/>
-      <c r="E13" s="208" t="s">
+      <c r="E13" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="208" t="s">
+      <c r="F13" s="206" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="199" t="s">
+      <c r="G13" s="208" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="196"/>
-      <c r="I13" s="197"/>
-      <c r="J13" s="198"/>
-      <c r="K13" s="199" t="s">
+      <c r="H13" s="210"/>
+      <c r="I13" s="211"/>
+      <c r="J13" s="212"/>
+      <c r="K13" s="208" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="200"/>
+      <c r="A14" s="204"/>
       <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
@@ -27116,9 +27116,9 @@
       <c r="D14" s="150" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="210"/>
-      <c r="F14" s="210"/>
-      <c r="G14" s="200"/>
+      <c r="E14" s="209"/>
+      <c r="F14" s="209"/>
+      <c r="G14" s="204"/>
       <c r="H14" s="179" t="s">
         <v>207</v>
       </c>
@@ -27128,7 +27128,7 @@
       <c r="J14" s="179" t="s">
         <v>209</v>
       </c>
-      <c r="K14" s="200"/>
+      <c r="K14" s="204"/>
     </row>
     <row r="15" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="187">
@@ -27310,34 +27310,33 @@
         <v>6</v>
       </c>
       <c r="B20" s="118">
-        <v>42338</v>
+        <v>42335</v>
       </c>
       <c r="C20" s="124" t="s">
-        <v>164</v>
-      </c>
-      <c r="D20" s="124" t="s">
-        <v>436</v>
+        <v>178</v>
+      </c>
+      <c r="D20" s="127">
+        <v>2326</v>
       </c>
       <c r="E20" s="127">
-        <v>18593</v>
+        <v>16372</v>
       </c>
       <c r="F20" s="131">
-        <v>8099</v>
+        <v>8121</v>
       </c>
       <c r="G20" s="132">
-        <v>9000</v>
-      </c>
-      <c r="H20" s="119">
-        <v>9000</v>
-      </c>
-      <c r="I20" s="119" t="s">
-        <v>212</v>
-      </c>
-      <c r="J20" s="120" t="s">
-        <v>212</v>
-      </c>
-      <c r="K20" s="189" t="s">
-        <v>734</v>
+        <v>872</v>
+      </c>
+      <c r="H20" s="119"/>
+      <c r="I20" s="139">
+        <v>872</v>
+      </c>
+      <c r="J20" s="120"/>
+      <c r="K20" s="190" t="s">
+        <v>799</v>
+      </c>
+      <c r="L20" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -27345,45 +27344,46 @@
         <v>7</v>
       </c>
       <c r="B21" s="118">
-        <v>42335</v>
+        <v>42338</v>
       </c>
       <c r="C21" s="124" t="s">
-        <v>178</v>
-      </c>
-      <c r="D21" s="127">
-        <v>2326</v>
+        <v>164</v>
+      </c>
+      <c r="D21" s="124" t="s">
+        <v>436</v>
       </c>
       <c r="E21" s="127">
-        <v>16372</v>
+        <v>18593</v>
       </c>
       <c r="F21" s="131">
-        <v>8121</v>
+        <v>8099</v>
       </c>
       <c r="G21" s="132">
-        <v>872</v>
-      </c>
-      <c r="H21" s="119"/>
-      <c r="I21" s="139">
-        <v>872</v>
-      </c>
-      <c r="J21" s="120"/>
-      <c r="K21" s="190" t="s">
-        <v>799</v>
-      </c>
-      <c r="L21" t="s">
-        <v>23</v>
+        <v>9000</v>
+      </c>
+      <c r="H21" s="119">
+        <v>9000</v>
+      </c>
+      <c r="I21" s="119" t="s">
+        <v>212</v>
+      </c>
+      <c r="J21" s="120" t="s">
+        <v>212</v>
+      </c>
+      <c r="K21" s="189" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="201" t="s">
+      <c r="A23" s="200" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="202"/>
-      <c r="C23" s="202"/>
-      <c r="D23" s="202"/>
-      <c r="E23" s="202"/>
-      <c r="F23" s="203"/>
+      <c r="B23" s="201"/>
+      <c r="C23" s="201"/>
+      <c r="D23" s="201"/>
+      <c r="E23" s="201"/>
+      <c r="F23" s="202"/>
       <c r="G23" s="185">
         <f>SUM(G15:G21)</f>
         <v>18527</v>
@@ -27403,7 +27403,11 @@
       <c r="K23" s="19"/>
     </row>
   </sheetData>
+  <sortState ref="A15:L21">
+    <sortCondition ref="B15:B21"/>
+  </sortState>
   <mergeCells count="17">
+    <mergeCell ref="A23:F23"/>
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A6:K6"/>
@@ -27420,7 +27424,6 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="H13:J13"/>
-    <mergeCell ref="A23:F23"/>
   </mergeCells>
   <pageMargins left="0.47244094488188981" right="0.47244094488188981" top="0.62992125984251968" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="66" orientation="landscape" r:id="rId1"/>
@@ -27457,34 +27460,34 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:13" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="204" t="s">
+      <c r="A3" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="204"/>
-      <c r="C3" s="204"/>
+      <c r="B3" s="195"/>
+      <c r="C3" s="195"/>
       <c r="D3" s="214"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="204"/>
+      <c r="E3" s="195"/>
+      <c r="F3" s="195"/>
+      <c r="G3" s="195"/>
+      <c r="H3" s="195"/>
+      <c r="I3" s="195"/>
+      <c r="J3" s="195"/>
+      <c r="K3" s="195"/>
     </row>
     <row r="4" spans="1:13" ht="27" x14ac:dyDescent="0.25">
-      <c r="A4" s="205" t="s">
+      <c r="A4" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="205"/>
-      <c r="C4" s="205"/>
+      <c r="B4" s="196"/>
+      <c r="C4" s="196"/>
       <c r="D4" s="215"/>
-      <c r="E4" s="205"/>
-      <c r="F4" s="205"/>
-      <c r="G4" s="205"/>
-      <c r="H4" s="205"/>
-      <c r="I4" s="205"/>
-      <c r="J4" s="205"/>
-      <c r="K4" s="205"/>
+      <c r="E4" s="196"/>
+      <c r="F4" s="196"/>
+      <c r="G4" s="196"/>
+      <c r="H4" s="196"/>
+      <c r="I4" s="196"/>
+      <c r="J4" s="196"/>
+      <c r="K4" s="196"/>
     </row>
     <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
@@ -27500,19 +27503,19 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="195" t="s">
+      <c r="A6" s="213" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="195"/>
-      <c r="C6" s="195"/>
+      <c r="B6" s="213"/>
+      <c r="C6" s="213"/>
       <c r="D6" s="216"/>
-      <c r="E6" s="195"/>
-      <c r="F6" s="195"/>
-      <c r="G6" s="195"/>
-      <c r="H6" s="195"/>
-      <c r="I6" s="195"/>
-      <c r="J6" s="195"/>
-      <c r="K6" s="195"/>
+      <c r="E6" s="213"/>
+      <c r="F6" s="213"/>
+      <c r="G6" s="213"/>
+      <c r="H6" s="213"/>
+      <c r="I6" s="213"/>
+      <c r="J6" s="213"/>
+      <c r="K6" s="213"/>
     </row>
     <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
@@ -27611,15 +27614,15 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="206" t="s">
+      <c r="A13" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="207" t="s">
+      <c r="B13" s="205" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="207"/>
+      <c r="C13" s="205"/>
       <c r="D13" s="217"/>
-      <c r="E13" s="208" t="s">
+      <c r="E13" s="206" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="156" t="s">
@@ -27638,7 +27641,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="200"/>
+      <c r="A14" s="204"/>
       <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
@@ -27648,7 +27651,7 @@
       <c r="D14" s="150" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="209"/>
+      <c r="E14" s="207"/>
       <c r="F14" s="157"/>
       <c r="G14" s="159"/>
       <c r="H14" s="128" t="s">
@@ -27833,14 +27836,14 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="201" t="s">
+      <c r="A19" s="200" t="s">
         <v>510</v>
       </c>
-      <c r="B19" s="202"/>
-      <c r="C19" s="202"/>
-      <c r="D19" s="202"/>
-      <c r="E19" s="202"/>
-      <c r="F19" s="203"/>
+      <c r="B19" s="201"/>
+      <c r="C19" s="201"/>
+      <c r="D19" s="201"/>
+      <c r="E19" s="201"/>
+      <c r="F19" s="202"/>
       <c r="G19" s="18">
         <f>SUM(G15:G18)</f>
         <v>37221.800000000003</v>
@@ -27879,7 +27882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O362"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A333" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M338" sqref="M338"/>
     </sheetView>
@@ -27901,36 +27904,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="204" t="s">
+      <c r="A2" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="204"/>
-      <c r="C2" s="204"/>
+      <c r="B2" s="195"/>
+      <c r="C2" s="195"/>
       <c r="D2" s="214"/>
-      <c r="E2" s="204"/>
-      <c r="F2" s="204"/>
-      <c r="G2" s="204"/>
-      <c r="H2" s="204"/>
-      <c r="I2" s="204"/>
-      <c r="J2" s="204"/>
-      <c r="K2" s="204"/>
-      <c r="L2" s="204"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="195"/>
+      <c r="L2" s="195"/>
     </row>
     <row r="3" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="205" t="s">
+      <c r="A3" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="205"/>
-      <c r="C3" s="205"/>
+      <c r="B3" s="196"/>
+      <c r="C3" s="196"/>
       <c r="D3" s="215"/>
-      <c r="E3" s="205"/>
-      <c r="F3" s="205"/>
-      <c r="G3" s="205"/>
-      <c r="H3" s="205"/>
-      <c r="I3" s="205"/>
-      <c r="J3" s="205"/>
-      <c r="K3" s="205"/>
-      <c r="L3" s="205"/>
+      <c r="E3" s="196"/>
+      <c r="F3" s="196"/>
+      <c r="G3" s="196"/>
+      <c r="H3" s="196"/>
+      <c r="I3" s="196"/>
+      <c r="J3" s="196"/>
+      <c r="K3" s="196"/>
+      <c r="L3" s="196"/>
     </row>
     <row r="4" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -27947,20 +27950,20 @@
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="195" t="s">
+      <c r="A5" s="213" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="195"/>
-      <c r="C5" s="195"/>
+      <c r="B5" s="213"/>
+      <c r="C5" s="213"/>
       <c r="D5" s="216"/>
-      <c r="E5" s="195"/>
-      <c r="F5" s="195"/>
-      <c r="G5" s="195"/>
-      <c r="H5" s="195"/>
-      <c r="I5" s="195"/>
-      <c r="J5" s="195"/>
-      <c r="K5" s="195"/>
-      <c r="L5" s="195"/>
+      <c r="E5" s="213"/>
+      <c r="F5" s="213"/>
+      <c r="G5" s="213"/>
+      <c r="H5" s="213"/>
+      <c r="I5" s="213"/>
+      <c r="J5" s="213"/>
+      <c r="K5" s="213"/>
+      <c r="L5" s="213"/>
     </row>
     <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -28065,13 +28068,13 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="206" t="s">
+      <c r="A12" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="207" t="s">
+      <c r="B12" s="205" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="207"/>
+      <c r="C12" s="205"/>
       <c r="D12" s="217"/>
       <c r="E12" s="156" t="s">
         <v>10</v>
@@ -28091,7 +28094,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="200"/>
+      <c r="A13" s="204"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -41813,14 +41816,14 @@
       <c r="N360" s="161"/>
     </row>
     <row r="361" spans="1:14" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A361" s="201" t="s">
+      <c r="A361" s="200" t="s">
         <v>510</v>
       </c>
-      <c r="B361" s="202"/>
-      <c r="C361" s="202"/>
-      <c r="D361" s="202"/>
-      <c r="E361" s="202"/>
-      <c r="F361" s="203"/>
+      <c r="B361" s="201"/>
+      <c r="C361" s="201"/>
+      <c r="D361" s="201"/>
+      <c r="E361" s="201"/>
+      <c r="F361" s="202"/>
       <c r="G361" s="18">
         <f>SUM(G14:G360)</f>
         <v>3060097.5199999996</v>
@@ -41894,34 +41897,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="204" t="s">
+      <c r="A2" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="204"/>
-      <c r="C2" s="204"/>
+      <c r="B2" s="195"/>
+      <c r="C2" s="195"/>
       <c r="D2" s="214"/>
-      <c r="E2" s="204"/>
-      <c r="F2" s="204"/>
-      <c r="G2" s="204"/>
-      <c r="H2" s="204"/>
-      <c r="I2" s="204"/>
-      <c r="J2" s="204"/>
-      <c r="K2" s="204"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="195"/>
     </row>
     <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="205" t="s">
+      <c r="A3" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="205"/>
-      <c r="C3" s="205"/>
+      <c r="B3" s="196"/>
+      <c r="C3" s="196"/>
       <c r="D3" s="215"/>
-      <c r="E3" s="205"/>
-      <c r="F3" s="205"/>
-      <c r="G3" s="205"/>
-      <c r="H3" s="205"/>
-      <c r="I3" s="205"/>
-      <c r="J3" s="205"/>
-      <c r="K3" s="205"/>
+      <c r="E3" s="196"/>
+      <c r="F3" s="196"/>
+      <c r="G3" s="196"/>
+      <c r="H3" s="196"/>
+      <c r="I3" s="196"/>
+      <c r="J3" s="196"/>
+      <c r="K3" s="196"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -41937,19 +41940,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="195" t="s">
+      <c r="A5" s="213" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="195"/>
-      <c r="C5" s="195"/>
+      <c r="B5" s="213"/>
+      <c r="C5" s="213"/>
       <c r="D5" s="216"/>
-      <c r="E5" s="195"/>
-      <c r="F5" s="195"/>
-      <c r="G5" s="195"/>
-      <c r="H5" s="195"/>
-      <c r="I5" s="195"/>
-      <c r="J5" s="195"/>
-      <c r="K5" s="195"/>
+      <c r="E5" s="213"/>
+      <c r="F5" s="213"/>
+      <c r="G5" s="213"/>
+      <c r="H5" s="213"/>
+      <c r="I5" s="213"/>
+      <c r="J5" s="213"/>
+      <c r="K5" s="213"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -42048,13 +42051,13 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="206" t="s">
+      <c r="A12" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="207" t="s">
+      <c r="B12" s="205" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="207"/>
+      <c r="C12" s="205"/>
       <c r="D12" s="217"/>
       <c r="E12" s="156" t="s">
         <v>10</v>
@@ -42073,7 +42076,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="200"/>
+      <c r="A13" s="204"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -45560,14 +45563,14 @@
       <c r="M243" s="161"/>
     </row>
     <row r="244" spans="1:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="201" t="s">
+      <c r="A244" s="200" t="s">
         <v>510</v>
       </c>
-      <c r="B244" s="202"/>
-      <c r="C244" s="202"/>
-      <c r="D244" s="202"/>
-      <c r="E244" s="202"/>
-      <c r="F244" s="203"/>
+      <c r="B244" s="201"/>
+      <c r="C244" s="201"/>
+      <c r="D244" s="201"/>
+      <c r="E244" s="201"/>
+      <c r="F244" s="202"/>
       <c r="G244" s="18">
         <f>SUM(G14:G243)</f>
         <v>0</v>
@@ -45639,34 +45642,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="204" t="s">
+      <c r="A2" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="204"/>
-      <c r="C2" s="204"/>
+      <c r="B2" s="195"/>
+      <c r="C2" s="195"/>
       <c r="D2" s="214"/>
-      <c r="E2" s="204"/>
-      <c r="F2" s="204"/>
-      <c r="G2" s="204"/>
-      <c r="H2" s="204"/>
-      <c r="I2" s="204"/>
-      <c r="J2" s="204"/>
-      <c r="K2" s="204"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="195"/>
     </row>
     <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="205" t="s">
+      <c r="A3" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="205"/>
-      <c r="C3" s="205"/>
+      <c r="B3" s="196"/>
+      <c r="C3" s="196"/>
       <c r="D3" s="215"/>
-      <c r="E3" s="205"/>
-      <c r="F3" s="205"/>
-      <c r="G3" s="205"/>
-      <c r="H3" s="205"/>
-      <c r="I3" s="205"/>
-      <c r="J3" s="205"/>
-      <c r="K3" s="205"/>
+      <c r="E3" s="196"/>
+      <c r="F3" s="196"/>
+      <c r="G3" s="196"/>
+      <c r="H3" s="196"/>
+      <c r="I3" s="196"/>
+      <c r="J3" s="196"/>
+      <c r="K3" s="196"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -45682,19 +45685,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="195" t="s">
+      <c r="A5" s="213" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="195"/>
-      <c r="C5" s="195"/>
+      <c r="B5" s="213"/>
+      <c r="C5" s="213"/>
       <c r="D5" s="216"/>
-      <c r="E5" s="195"/>
-      <c r="F5" s="195"/>
-      <c r="G5" s="195"/>
-      <c r="H5" s="195"/>
-      <c r="I5" s="195"/>
-      <c r="J5" s="195"/>
-      <c r="K5" s="195"/>
+      <c r="E5" s="213"/>
+      <c r="F5" s="213"/>
+      <c r="G5" s="213"/>
+      <c r="H5" s="213"/>
+      <c r="I5" s="213"/>
+      <c r="J5" s="213"/>
+      <c r="K5" s="213"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -45793,13 +45796,13 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="206" t="s">
+      <c r="A12" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="207" t="s">
+      <c r="B12" s="205" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="207"/>
+      <c r="C12" s="205"/>
       <c r="D12" s="217"/>
       <c r="E12" s="156" t="s">
         <v>10</v>
@@ -45818,7 +45821,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="200"/>
+      <c r="A13" s="204"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -49305,14 +49308,14 @@
       <c r="M243" s="161"/>
     </row>
     <row r="244" spans="1:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="201" t="s">
+      <c r="A244" s="200" t="s">
         <v>510</v>
       </c>
-      <c r="B244" s="202"/>
-      <c r="C244" s="202"/>
-      <c r="D244" s="202"/>
-      <c r="E244" s="202"/>
-      <c r="F244" s="203"/>
+      <c r="B244" s="201"/>
+      <c r="C244" s="201"/>
+      <c r="D244" s="201"/>
+      <c r="E244" s="201"/>
+      <c r="F244" s="202"/>
       <c r="G244" s="18">
         <f>SUM(G14:G243)</f>
         <v>0</v>
@@ -49388,21 +49391,21 @@
   <sheetData>
     <row r="1" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="195" t="s">
+      <c r="B2" s="213" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="195"/>
-      <c r="D2" s="195"/>
-      <c r="E2" s="195"/>
-      <c r="F2" s="195"/>
-      <c r="G2" s="195"/>
-      <c r="H2" s="195"/>
-      <c r="I2" s="195"/>
-      <c r="J2" s="195"/>
-      <c r="K2" s="195"/>
-      <c r="L2" s="195"/>
-      <c r="M2" s="195"/>
-      <c r="N2" s="195"/>
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
+      <c r="G2" s="213"/>
+      <c r="H2" s="213"/>
+      <c r="I2" s="213"/>
+      <c r="J2" s="213"/>
+      <c r="K2" s="213"/>
+      <c r="L2" s="213"/>
+      <c r="M2" s="213"/>
+      <c r="N2" s="213"/>
     </row>
     <row r="3" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="30"/>
@@ -49420,21 +49423,21 @@
       <c r="N3" s="30"/>
     </row>
     <row r="4" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="195" t="s">
+      <c r="B4" s="213" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="195"/>
-      <c r="D4" s="195"/>
-      <c r="E4" s="195"/>
-      <c r="F4" s="195"/>
-      <c r="G4" s="195"/>
-      <c r="H4" s="195"/>
-      <c r="I4" s="195"/>
-      <c r="J4" s="195"/>
-      <c r="K4" s="195"/>
-      <c r="L4" s="195"/>
-      <c r="M4" s="195"/>
-      <c r="N4" s="195"/>
+      <c r="C4" s="213"/>
+      <c r="D4" s="213"/>
+      <c r="E4" s="213"/>
+      <c r="F4" s="213"/>
+      <c r="G4" s="213"/>
+      <c r="H4" s="213"/>
+      <c r="I4" s="213"/>
+      <c r="J4" s="213"/>
+      <c r="K4" s="213"/>
+      <c r="L4" s="213"/>
+      <c r="M4" s="213"/>
+      <c r="N4" s="213"/>
     </row>
     <row r="5" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="34"/>
@@ -49544,56 +49547,56 @@
       <c r="N9" s="55"/>
     </row>
     <row r="10" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="238" t="s">
+      <c r="B10" s="225" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="228" t="s">
+      <c r="C10" s="227" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="240" t="s">
+      <c r="D10" s="229" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="228" t="s">
+      <c r="E10" s="227" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="228" t="s">
+      <c r="F10" s="227" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="228" t="s">
+      <c r="G10" s="227" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="228" t="s">
+      <c r="H10" s="227" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="226" t="s">
+      <c r="I10" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="228" t="s">
+      <c r="J10" s="227" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="228" t="s">
+      <c r="K10" s="227" t="s">
         <v>36</v>
       </c>
-      <c r="L10" s="228" t="s">
+      <c r="L10" s="227" t="s">
         <v>37</v>
       </c>
-      <c r="M10" s="230" t="s">
+      <c r="M10" s="233" t="s">
         <v>38</v>
       </c>
-      <c r="N10" s="231"/>
+      <c r="N10" s="234"/>
     </row>
     <row r="11" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="239"/>
-      <c r="C11" s="229"/>
-      <c r="D11" s="241"/>
-      <c r="E11" s="229"/>
-      <c r="F11" s="229"/>
-      <c r="G11" s="229"/>
-      <c r="H11" s="229"/>
-      <c r="I11" s="227"/>
-      <c r="J11" s="229"/>
-      <c r="K11" s="229"/>
-      <c r="L11" s="229"/>
+      <c r="B11" s="226"/>
+      <c r="C11" s="228"/>
+      <c r="D11" s="230"/>
+      <c r="E11" s="228"/>
+      <c r="F11" s="228"/>
+      <c r="G11" s="228"/>
+      <c r="H11" s="228"/>
+      <c r="I11" s="232"/>
+      <c r="J11" s="228"/>
+      <c r="K11" s="228"/>
+      <c r="L11" s="228"/>
       <c r="M11" s="56" t="s">
         <v>39</v>
       </c>
@@ -49728,31 +49731,31 @@
       <c r="N17" s="81"/>
     </row>
     <row r="18" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="232" t="s">
+      <c r="B18" s="235" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="233"/>
-      <c r="D18" s="233"/>
-      <c r="E18" s="233"/>
-      <c r="F18" s="233"/>
-      <c r="G18" s="233"/>
-      <c r="H18" s="234"/>
+      <c r="C18" s="236"/>
+      <c r="D18" s="236"/>
+      <c r="E18" s="236"/>
+      <c r="F18" s="236"/>
+      <c r="G18" s="236"/>
+      <c r="H18" s="237"/>
       <c r="I18" s="82">
         <f>SUM(I12:I17)</f>
         <v>3780</v>
       </c>
-      <c r="J18" s="235"/>
-      <c r="K18" s="236"/>
-      <c r="L18" s="236"/>
-      <c r="M18" s="236"/>
-      <c r="N18" s="237"/>
+      <c r="J18" s="238"/>
+      <c r="K18" s="239"/>
+      <c r="L18" s="239"/>
+      <c r="M18" s="239"/>
+      <c r="N18" s="240"/>
     </row>
     <row r="19" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M20" s="225" t="s">
+      <c r="M20" s="247" t="s">
         <v>27</v>
       </c>
-      <c r="N20" s="225"/>
+      <c r="N20" s="247"/>
     </row>
     <row r="21" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M21" s="83"/>
@@ -49774,21 +49777,21 @@
       <c r="N22" s="84"/>
     </row>
     <row r="23" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="195" t="s">
+      <c r="B23" s="213" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="195"/>
-      <c r="D23" s="195"/>
-      <c r="E23" s="195"/>
-      <c r="F23" s="195"/>
-      <c r="G23" s="195"/>
-      <c r="H23" s="195"/>
-      <c r="I23" s="195"/>
-      <c r="J23" s="195"/>
-      <c r="K23" s="195"/>
-      <c r="L23" s="195"/>
-      <c r="M23" s="195"/>
-      <c r="N23" s="195"/>
+      <c r="C23" s="213"/>
+      <c r="D23" s="213"/>
+      <c r="E23" s="213"/>
+      <c r="F23" s="213"/>
+      <c r="G23" s="213"/>
+      <c r="H23" s="213"/>
+      <c r="I23" s="213"/>
+      <c r="J23" s="213"/>
+      <c r="K23" s="213"/>
+      <c r="L23" s="213"/>
+      <c r="M23" s="213"/>
+      <c r="N23" s="213"/>
     </row>
     <row r="24" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="30"/>
@@ -49806,21 +49809,21 @@
       <c r="N24" s="30"/>
     </row>
     <row r="25" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="195" t="s">
+      <c r="B25" s="213" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="195"/>
-      <c r="D25" s="195"/>
-      <c r="E25" s="195"/>
-      <c r="F25" s="195"/>
-      <c r="G25" s="195"/>
-      <c r="H25" s="195"/>
-      <c r="I25" s="195"/>
-      <c r="J25" s="195"/>
-      <c r="K25" s="195"/>
-      <c r="L25" s="195"/>
-      <c r="M25" s="195"/>
-      <c r="N25" s="195"/>
+      <c r="C25" s="213"/>
+      <c r="D25" s="213"/>
+      <c r="E25" s="213"/>
+      <c r="F25" s="213"/>
+      <c r="G25" s="213"/>
+      <c r="H25" s="213"/>
+      <c r="I25" s="213"/>
+      <c r="J25" s="213"/>
+      <c r="K25" s="213"/>
+      <c r="L25" s="213"/>
+      <c r="M25" s="213"/>
+      <c r="N25" s="213"/>
     </row>
     <row r="26" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="30"/>
@@ -49930,56 +49933,56 @@
       <c r="N30" s="55"/>
     </row>
     <row r="31" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="238" t="s">
+      <c r="B31" s="225" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="228" t="s">
+      <c r="C31" s="227" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="240" t="s">
+      <c r="D31" s="229" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="228" t="s">
+      <c r="E31" s="227" t="s">
         <v>33</v>
       </c>
-      <c r="F31" s="228" t="s">
+      <c r="F31" s="227" t="s">
         <v>34</v>
       </c>
-      <c r="G31" s="228" t="s">
+      <c r="G31" s="227" t="s">
         <v>10</v>
       </c>
-      <c r="H31" s="228" t="s">
+      <c r="H31" s="227" t="s">
         <v>11</v>
       </c>
-      <c r="I31" s="226" t="s">
+      <c r="I31" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="J31" s="228" t="s">
+      <c r="J31" s="227" t="s">
         <v>35</v>
       </c>
-      <c r="K31" s="228" t="s">
+      <c r="K31" s="227" t="s">
         <v>36</v>
       </c>
-      <c r="L31" s="228" t="s">
+      <c r="L31" s="227" t="s">
         <v>37</v>
       </c>
-      <c r="M31" s="230" t="s">
+      <c r="M31" s="233" t="s">
         <v>38</v>
       </c>
-      <c r="N31" s="231"/>
+      <c r="N31" s="234"/>
     </row>
     <row r="32" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="239"/>
-      <c r="C32" s="229"/>
-      <c r="D32" s="241"/>
-      <c r="E32" s="229"/>
-      <c r="F32" s="229"/>
-      <c r="G32" s="229"/>
-      <c r="H32" s="229"/>
-      <c r="I32" s="227"/>
-      <c r="J32" s="229"/>
-      <c r="K32" s="229"/>
-      <c r="L32" s="229"/>
+      <c r="B32" s="226"/>
+      <c r="C32" s="228"/>
+      <c r="D32" s="230"/>
+      <c r="E32" s="228"/>
+      <c r="F32" s="228"/>
+      <c r="G32" s="228"/>
+      <c r="H32" s="228"/>
+      <c r="I32" s="232"/>
+      <c r="J32" s="228"/>
+      <c r="K32" s="228"/>
+      <c r="L32" s="228"/>
       <c r="M32" s="56" t="s">
         <v>39</v>
       </c>
@@ -50073,31 +50076,31 @@
       <c r="N37" s="81"/>
     </row>
     <row r="38" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="242" t="s">
+      <c r="B38" s="241" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="243"/>
-      <c r="D38" s="243"/>
-      <c r="E38" s="243"/>
-      <c r="F38" s="243"/>
-      <c r="G38" s="243"/>
-      <c r="H38" s="244"/>
+      <c r="C38" s="242"/>
+      <c r="D38" s="242"/>
+      <c r="E38" s="242"/>
+      <c r="F38" s="242"/>
+      <c r="G38" s="242"/>
+      <c r="H38" s="243"/>
       <c r="I38" s="86">
         <f>SUM(I33:I37)</f>
         <v>0</v>
       </c>
-      <c r="J38" s="245"/>
-      <c r="K38" s="246"/>
-      <c r="L38" s="246"/>
-      <c r="M38" s="246"/>
-      <c r="N38" s="247"/>
+      <c r="J38" s="244"/>
+      <c r="K38" s="245"/>
+      <c r="L38" s="245"/>
+      <c r="M38" s="245"/>
+      <c r="N38" s="246"/>
     </row>
     <row r="39" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M40" s="225" t="s">
+      <c r="M40" s="247" t="s">
         <v>27</v>
       </c>
-      <c r="N40" s="225"/>
+      <c r="N40" s="247"/>
     </row>
     <row r="41" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M41" s="83"/>
@@ -50119,21 +50122,21 @@
       <c r="N42" s="84"/>
     </row>
     <row r="43" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="195" t="s">
+      <c r="B43" s="213" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="195"/>
-      <c r="D43" s="195"/>
-      <c r="E43" s="195"/>
-      <c r="F43" s="195"/>
-      <c r="G43" s="195"/>
-      <c r="H43" s="195"/>
-      <c r="I43" s="195"/>
-      <c r="J43" s="195"/>
-      <c r="K43" s="195"/>
-      <c r="L43" s="195"/>
-      <c r="M43" s="195"/>
-      <c r="N43" s="195"/>
+      <c r="C43" s="213"/>
+      <c r="D43" s="213"/>
+      <c r="E43" s="213"/>
+      <c r="F43" s="213"/>
+      <c r="G43" s="213"/>
+      <c r="H43" s="213"/>
+      <c r="I43" s="213"/>
+      <c r="J43" s="213"/>
+      <c r="K43" s="213"/>
+      <c r="L43" s="213"/>
+      <c r="M43" s="213"/>
+      <c r="N43" s="213"/>
     </row>
     <row r="44" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="30"/>
@@ -50151,21 +50154,21 @@
       <c r="N44" s="30"/>
     </row>
     <row r="45" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="195" t="s">
+      <c r="B45" s="213" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="195"/>
-      <c r="D45" s="195"/>
-      <c r="E45" s="195"/>
-      <c r="F45" s="195"/>
-      <c r="G45" s="195"/>
-      <c r="H45" s="195"/>
-      <c r="I45" s="195"/>
-      <c r="J45" s="195"/>
-      <c r="K45" s="195"/>
-      <c r="L45" s="195"/>
-      <c r="M45" s="195"/>
-      <c r="N45" s="195"/>
+      <c r="C45" s="213"/>
+      <c r="D45" s="213"/>
+      <c r="E45" s="213"/>
+      <c r="F45" s="213"/>
+      <c r="G45" s="213"/>
+      <c r="H45" s="213"/>
+      <c r="I45" s="213"/>
+      <c r="J45" s="213"/>
+      <c r="K45" s="213"/>
+      <c r="L45" s="213"/>
+      <c r="M45" s="213"/>
+      <c r="N45" s="213"/>
     </row>
     <row r="46" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="30"/>
@@ -50275,56 +50278,56 @@
       <c r="N50" s="55"/>
     </row>
     <row r="51" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="238" t="s">
+      <c r="B51" s="225" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="228" t="s">
+      <c r="C51" s="227" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="240" t="s">
+      <c r="D51" s="229" t="s">
         <v>32</v>
       </c>
-      <c r="E51" s="228" t="s">
+      <c r="E51" s="227" t="s">
         <v>33</v>
       </c>
-      <c r="F51" s="228" t="s">
+      <c r="F51" s="227" t="s">
         <v>34</v>
       </c>
-      <c r="G51" s="228" t="s">
+      <c r="G51" s="227" t="s">
         <v>10</v>
       </c>
-      <c r="H51" s="228" t="s">
+      <c r="H51" s="227" t="s">
         <v>11</v>
       </c>
-      <c r="I51" s="226" t="s">
+      <c r="I51" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="J51" s="228" t="s">
+      <c r="J51" s="227" t="s">
         <v>35</v>
       </c>
-      <c r="K51" s="228" t="s">
+      <c r="K51" s="227" t="s">
         <v>36</v>
       </c>
-      <c r="L51" s="228" t="s">
+      <c r="L51" s="227" t="s">
         <v>37</v>
       </c>
-      <c r="M51" s="230" t="s">
+      <c r="M51" s="233" t="s">
         <v>38</v>
       </c>
-      <c r="N51" s="231"/>
+      <c r="N51" s="234"/>
     </row>
     <row r="52" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="239"/>
-      <c r="C52" s="229"/>
-      <c r="D52" s="241"/>
-      <c r="E52" s="229"/>
-      <c r="F52" s="229"/>
-      <c r="G52" s="229"/>
-      <c r="H52" s="229"/>
-      <c r="I52" s="227"/>
-      <c r="J52" s="229"/>
-      <c r="K52" s="229"/>
-      <c r="L52" s="229"/>
+      <c r="B52" s="226"/>
+      <c r="C52" s="228"/>
+      <c r="D52" s="230"/>
+      <c r="E52" s="228"/>
+      <c r="F52" s="228"/>
+      <c r="G52" s="228"/>
+      <c r="H52" s="228"/>
+      <c r="I52" s="232"/>
+      <c r="J52" s="228"/>
+      <c r="K52" s="228"/>
+      <c r="L52" s="228"/>
       <c r="M52" s="56" t="s">
         <v>39</v>
       </c>
@@ -50401,31 +50404,31 @@
       <c r="N56" s="81"/>
     </row>
     <row r="57" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="242" t="s">
+      <c r="B57" s="241" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="243"/>
-      <c r="D57" s="243"/>
-      <c r="E57" s="243"/>
-      <c r="F57" s="243"/>
-      <c r="G57" s="243"/>
-      <c r="H57" s="244"/>
+      <c r="C57" s="242"/>
+      <c r="D57" s="242"/>
+      <c r="E57" s="242"/>
+      <c r="F57" s="242"/>
+      <c r="G57" s="242"/>
+      <c r="H57" s="243"/>
       <c r="I57" s="86">
         <f>SUM(I53:I56)</f>
         <v>0</v>
       </c>
-      <c r="J57" s="245"/>
-      <c r="K57" s="246"/>
-      <c r="L57" s="246"/>
-      <c r="M57" s="246"/>
-      <c r="N57" s="247"/>
+      <c r="J57" s="244"/>
+      <c r="K57" s="245"/>
+      <c r="L57" s="245"/>
+      <c r="M57" s="245"/>
+      <c r="N57" s="246"/>
     </row>
     <row r="58" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M59" s="225" t="s">
+      <c r="M59" s="247" t="s">
         <v>27</v>
       </c>
-      <c r="N59" s="225"/>
+      <c r="N59" s="247"/>
     </row>
     <row r="60" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M60" s="83"/>
@@ -50455,21 +50458,21 @@
       <c r="N63" s="84"/>
     </row>
     <row r="64" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="195" t="s">
+      <c r="B64" s="213" t="s">
         <v>26</v>
       </c>
-      <c r="C64" s="195"/>
-      <c r="D64" s="195"/>
-      <c r="E64" s="195"/>
-      <c r="F64" s="195"/>
-      <c r="G64" s="195"/>
-      <c r="H64" s="195"/>
-      <c r="I64" s="195"/>
-      <c r="J64" s="195"/>
-      <c r="K64" s="195"/>
-      <c r="L64" s="195"/>
-      <c r="M64" s="195"/>
-      <c r="N64" s="195"/>
+      <c r="C64" s="213"/>
+      <c r="D64" s="213"/>
+      <c r="E64" s="213"/>
+      <c r="F64" s="213"/>
+      <c r="G64" s="213"/>
+      <c r="H64" s="213"/>
+      <c r="I64" s="213"/>
+      <c r="J64" s="213"/>
+      <c r="K64" s="213"/>
+      <c r="L64" s="213"/>
+      <c r="M64" s="213"/>
+      <c r="N64" s="213"/>
     </row>
     <row r="65" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="30"/>
@@ -50487,21 +50490,21 @@
       <c r="N65" s="30"/>
     </row>
     <row r="66" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="195" t="s">
+      <c r="B66" s="213" t="s">
         <v>28</v>
       </c>
-      <c r="C66" s="195"/>
-      <c r="D66" s="195"/>
-      <c r="E66" s="195"/>
-      <c r="F66" s="195"/>
-      <c r="G66" s="195"/>
-      <c r="H66" s="195"/>
-      <c r="I66" s="195"/>
-      <c r="J66" s="195"/>
-      <c r="K66" s="195"/>
-      <c r="L66" s="195"/>
-      <c r="M66" s="195"/>
-      <c r="N66" s="195"/>
+      <c r="C66" s="213"/>
+      <c r="D66" s="213"/>
+      <c r="E66" s="213"/>
+      <c r="F66" s="213"/>
+      <c r="G66" s="213"/>
+      <c r="H66" s="213"/>
+      <c r="I66" s="213"/>
+      <c r="J66" s="213"/>
+      <c r="K66" s="213"/>
+      <c r="L66" s="213"/>
+      <c r="M66" s="213"/>
+      <c r="N66" s="213"/>
     </row>
     <row r="67" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="30"/>
@@ -50611,56 +50614,56 @@
       <c r="N71" s="55"/>
     </row>
     <row r="72" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="238" t="s">
+      <c r="B72" s="225" t="s">
         <v>30</v>
       </c>
-      <c r="C72" s="228" t="s">
+      <c r="C72" s="227" t="s">
         <v>31</v>
       </c>
-      <c r="D72" s="240" t="s">
+      <c r="D72" s="229" t="s">
         <v>32</v>
       </c>
-      <c r="E72" s="228" t="s">
+      <c r="E72" s="227" t="s">
         <v>33</v>
       </c>
-      <c r="F72" s="228" t="s">
+      <c r="F72" s="227" t="s">
         <v>34</v>
       </c>
-      <c r="G72" s="228" t="s">
+      <c r="G72" s="227" t="s">
         <v>10</v>
       </c>
-      <c r="H72" s="228" t="s">
+      <c r="H72" s="227" t="s">
         <v>11</v>
       </c>
-      <c r="I72" s="226" t="s">
+      <c r="I72" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="J72" s="228" t="s">
+      <c r="J72" s="227" t="s">
         <v>35</v>
       </c>
-      <c r="K72" s="228" t="s">
+      <c r="K72" s="227" t="s">
         <v>36</v>
       </c>
-      <c r="L72" s="228" t="s">
+      <c r="L72" s="227" t="s">
         <v>37</v>
       </c>
-      <c r="M72" s="230" t="s">
+      <c r="M72" s="233" t="s">
         <v>38</v>
       </c>
-      <c r="N72" s="231"/>
+      <c r="N72" s="234"/>
     </row>
     <row r="73" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="239"/>
-      <c r="C73" s="229"/>
-      <c r="D73" s="241"/>
-      <c r="E73" s="229"/>
-      <c r="F73" s="229"/>
-      <c r="G73" s="229"/>
-      <c r="H73" s="229"/>
-      <c r="I73" s="227"/>
-      <c r="J73" s="229"/>
-      <c r="K73" s="229"/>
-      <c r="L73" s="229"/>
+      <c r="B73" s="226"/>
+      <c r="C73" s="228"/>
+      <c r="D73" s="230"/>
+      <c r="E73" s="228"/>
+      <c r="F73" s="228"/>
+      <c r="G73" s="228"/>
+      <c r="H73" s="228"/>
+      <c r="I73" s="232"/>
+      <c r="J73" s="228"/>
+      <c r="K73" s="228"/>
+      <c r="L73" s="228"/>
       <c r="M73" s="56" t="s">
         <v>39</v>
       </c>
@@ -50720,31 +50723,31 @@
       <c r="N76" s="81"/>
     </row>
     <row r="77" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="232" t="s">
+      <c r="B77" s="235" t="s">
         <v>19</v>
       </c>
-      <c r="C77" s="233"/>
-      <c r="D77" s="233"/>
-      <c r="E77" s="233"/>
-      <c r="F77" s="233"/>
-      <c r="G77" s="233"/>
-      <c r="H77" s="234"/>
+      <c r="C77" s="236"/>
+      <c r="D77" s="236"/>
+      <c r="E77" s="236"/>
+      <c r="F77" s="236"/>
+      <c r="G77" s="236"/>
+      <c r="H77" s="237"/>
       <c r="I77" s="82">
         <f>SUM(I74:I76)</f>
         <v>0</v>
       </c>
-      <c r="J77" s="235"/>
-      <c r="K77" s="236"/>
-      <c r="L77" s="236"/>
-      <c r="M77" s="236"/>
-      <c r="N77" s="237"/>
+      <c r="J77" s="238"/>
+      <c r="K77" s="239"/>
+      <c r="L77" s="239"/>
+      <c r="M77" s="239"/>
+      <c r="N77" s="240"/>
     </row>
     <row r="78" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="79" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M79" s="225" t="s">
+      <c r="M79" s="247" t="s">
         <v>27</v>
       </c>
-      <c r="N79" s="225"/>
+      <c r="N79" s="247"/>
     </row>
     <row r="80" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M80" s="83"/>
@@ -50789,20 +50792,44 @@
     <row r="86" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B4:N4"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M79:N79"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="L72:L73"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="B77:H77"/>
+    <mergeCell ref="J77:N77"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="B64:N64"/>
+    <mergeCell ref="B66:N66"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="J57:N57"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="B43:N43"/>
+    <mergeCell ref="B45:N45"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
     <mergeCell ref="B18:H18"/>
     <mergeCell ref="J18:N18"/>
     <mergeCell ref="B38:H38"/>
@@ -50819,44 +50846,20 @@
     <mergeCell ref="H31:H32"/>
     <mergeCell ref="I31:I32"/>
     <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="J57:N57"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="B43:N43"/>
-    <mergeCell ref="B45:N45"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="B77:H77"/>
-    <mergeCell ref="J77:N77"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="B64:N64"/>
-    <mergeCell ref="B66:N66"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="M79:N79"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="K72:K73"/>
-    <mergeCell ref="L72:L73"/>
-    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B4:N4"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:N10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>
@@ -50897,21 +50900,21 @@
   <sheetData>
     <row r="1" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="195" t="s">
+      <c r="B2" s="213" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="195"/>
-      <c r="D2" s="195"/>
-      <c r="E2" s="195"/>
-      <c r="F2" s="195"/>
-      <c r="G2" s="195"/>
-      <c r="H2" s="195"/>
-      <c r="I2" s="195"/>
-      <c r="J2" s="195"/>
-      <c r="K2" s="195"/>
-      <c r="L2" s="195"/>
-      <c r="M2" s="195"/>
-      <c r="N2" s="195"/>
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
+      <c r="G2" s="213"/>
+      <c r="H2" s="213"/>
+      <c r="I2" s="213"/>
+      <c r="J2" s="213"/>
+      <c r="K2" s="213"/>
+      <c r="L2" s="213"/>
+      <c r="M2" s="213"/>
+      <c r="N2" s="213"/>
     </row>
     <row r="3" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="89"/>
@@ -51021,56 +51024,56 @@
       <c r="N8" s="55"/>
     </row>
     <row r="9" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="238" t="s">
+      <c r="B9" s="225" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="228" t="s">
+      <c r="C9" s="227" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="240" t="s">
+      <c r="D9" s="229" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="228" t="s">
+      <c r="E9" s="227" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="228" t="s">
+      <c r="F9" s="227" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="228" t="s">
+      <c r="G9" s="227" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="228" t="s">
+      <c r="H9" s="227" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="226" t="s">
+      <c r="I9" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="228" t="s">
+      <c r="J9" s="227" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="228" t="s">
+      <c r="K9" s="227" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="228" t="s">
+      <c r="L9" s="227" t="s">
         <v>37</v>
       </c>
-      <c r="M9" s="230" t="s">
+      <c r="M9" s="233" t="s">
         <v>38</v>
       </c>
-      <c r="N9" s="231"/>
+      <c r="N9" s="234"/>
     </row>
     <row r="10" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="239"/>
-      <c r="C10" s="229"/>
-      <c r="D10" s="241"/>
-      <c r="E10" s="229"/>
-      <c r="F10" s="229"/>
-      <c r="G10" s="229"/>
-      <c r="H10" s="229"/>
-      <c r="I10" s="227"/>
-      <c r="J10" s="229"/>
-      <c r="K10" s="229"/>
-      <c r="L10" s="229"/>
+      <c r="B10" s="226"/>
+      <c r="C10" s="228"/>
+      <c r="D10" s="230"/>
+      <c r="E10" s="228"/>
+      <c r="F10" s="228"/>
+      <c r="G10" s="228"/>
+      <c r="H10" s="228"/>
+      <c r="I10" s="232"/>
+      <c r="J10" s="228"/>
+      <c r="K10" s="228"/>
+      <c r="L10" s="228"/>
       <c r="M10" s="56" t="s">
         <v>39</v>
       </c>
@@ -51499,44 +51502,44 @@
       <c r="N30" s="81"/>
     </row>
     <row r="31" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="232" t="s">
+      <c r="B31" s="235" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="233"/>
-      <c r="D31" s="233"/>
-      <c r="E31" s="233"/>
-      <c r="F31" s="233"/>
-      <c r="G31" s="233"/>
-      <c r="H31" s="234"/>
+      <c r="C31" s="236"/>
+      <c r="D31" s="236"/>
+      <c r="E31" s="236"/>
+      <c r="F31" s="236"/>
+      <c r="G31" s="236"/>
+      <c r="H31" s="237"/>
       <c r="I31" s="82">
         <f>SUM(I11:I30)</f>
         <v>1769.9</v>
       </c>
-      <c r="J31" s="235"/>
-      <c r="K31" s="236"/>
-      <c r="L31" s="236"/>
-      <c r="M31" s="236"/>
-      <c r="N31" s="237"/>
+      <c r="J31" s="238"/>
+      <c r="K31" s="239"/>
+      <c r="L31" s="239"/>
+      <c r="M31" s="239"/>
+      <c r="N31" s="240"/>
     </row>
     <row r="32" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="195" t="s">
+      <c r="B35" s="213" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="195"/>
-      <c r="D35" s="195"/>
-      <c r="E35" s="195"/>
-      <c r="F35" s="195"/>
-      <c r="G35" s="195"/>
-      <c r="H35" s="195"/>
-      <c r="I35" s="195"/>
-      <c r="J35" s="195"/>
-      <c r="K35" s="195"/>
-      <c r="L35" s="195"/>
-      <c r="M35" s="195"/>
-      <c r="N35" s="195"/>
+      <c r="C35" s="213"/>
+      <c r="D35" s="213"/>
+      <c r="E35" s="213"/>
+      <c r="F35" s="213"/>
+      <c r="G35" s="213"/>
+      <c r="H35" s="213"/>
+      <c r="I35" s="213"/>
+      <c r="J35" s="213"/>
+      <c r="K35" s="213"/>
+      <c r="L35" s="213"/>
+      <c r="M35" s="213"/>
+      <c r="N35" s="213"/>
     </row>
     <row r="36" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="89"/>
@@ -51646,56 +51649,56 @@
       <c r="N41" s="55"/>
     </row>
     <row r="42" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="238" t="s">
+      <c r="B42" s="225" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="228" t="s">
+      <c r="C42" s="227" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="240" t="s">
+      <c r="D42" s="229" t="s">
         <v>32</v>
       </c>
-      <c r="E42" s="228" t="s">
+      <c r="E42" s="227" t="s">
         <v>33</v>
       </c>
-      <c r="F42" s="228" t="s">
+      <c r="F42" s="227" t="s">
         <v>34</v>
       </c>
-      <c r="G42" s="228" t="s">
+      <c r="G42" s="227" t="s">
         <v>10</v>
       </c>
-      <c r="H42" s="228" t="s">
+      <c r="H42" s="227" t="s">
         <v>11</v>
       </c>
-      <c r="I42" s="226" t="s">
+      <c r="I42" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="J42" s="228" t="s">
+      <c r="J42" s="227" t="s">
         <v>35</v>
       </c>
-      <c r="K42" s="228" t="s">
+      <c r="K42" s="227" t="s">
         <v>36</v>
       </c>
-      <c r="L42" s="228" t="s">
+      <c r="L42" s="227" t="s">
         <v>37</v>
       </c>
-      <c r="M42" s="230" t="s">
+      <c r="M42" s="233" t="s">
         <v>38</v>
       </c>
-      <c r="N42" s="231"/>
+      <c r="N42" s="234"/>
     </row>
     <row r="43" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="239"/>
-      <c r="C43" s="229"/>
-      <c r="D43" s="241"/>
-      <c r="E43" s="229"/>
-      <c r="F43" s="229"/>
-      <c r="G43" s="229"/>
-      <c r="H43" s="229"/>
-      <c r="I43" s="227"/>
-      <c r="J43" s="229"/>
-      <c r="K43" s="229"/>
-      <c r="L43" s="229"/>
+      <c r="B43" s="226"/>
+      <c r="C43" s="228"/>
+      <c r="D43" s="230"/>
+      <c r="E43" s="228"/>
+      <c r="F43" s="228"/>
+      <c r="G43" s="228"/>
+      <c r="H43" s="228"/>
+      <c r="I43" s="232"/>
+      <c r="J43" s="228"/>
+      <c r="K43" s="228"/>
+      <c r="L43" s="228"/>
       <c r="M43" s="56" t="s">
         <v>39</v>
       </c>
@@ -51704,24 +51707,24 @@
       </c>
     </row>
     <row r="44" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="242" t="s">
+      <c r="B44" s="241" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="243"/>
-      <c r="D44" s="243"/>
-      <c r="E44" s="243"/>
-      <c r="F44" s="243"/>
-      <c r="G44" s="243"/>
-      <c r="H44" s="244"/>
+      <c r="C44" s="242"/>
+      <c r="D44" s="242"/>
+      <c r="E44" s="242"/>
+      <c r="F44" s="242"/>
+      <c r="G44" s="242"/>
+      <c r="H44" s="243"/>
       <c r="I44" s="86">
         <f>I31</f>
         <v>1769.9</v>
       </c>
-      <c r="J44" s="245"/>
-      <c r="K44" s="246"/>
-      <c r="L44" s="246"/>
-      <c r="M44" s="246"/>
-      <c r="N44" s="247"/>
+      <c r="J44" s="244"/>
+      <c r="K44" s="245"/>
+      <c r="L44" s="245"/>
+      <c r="M44" s="245"/>
+      <c r="N44" s="246"/>
     </row>
     <row r="45" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="58" t="s">
@@ -52085,44 +52088,44 @@
       </c>
     </row>
     <row r="63" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="232" t="s">
+      <c r="B63" s="235" t="s">
         <v>86</v>
       </c>
-      <c r="C63" s="233"/>
-      <c r="D63" s="233"/>
-      <c r="E63" s="233"/>
-      <c r="F63" s="233"/>
-      <c r="G63" s="233"/>
-      <c r="H63" s="234"/>
+      <c r="C63" s="236"/>
+      <c r="D63" s="236"/>
+      <c r="E63" s="236"/>
+      <c r="F63" s="236"/>
+      <c r="G63" s="236"/>
+      <c r="H63" s="237"/>
       <c r="I63" s="82">
         <f>SUM(I44:I62)</f>
         <v>1769.9</v>
       </c>
-      <c r="J63" s="235"/>
-      <c r="K63" s="236"/>
-      <c r="L63" s="236"/>
-      <c r="M63" s="236"/>
-      <c r="N63" s="237"/>
+      <c r="J63" s="238"/>
+      <c r="K63" s="239"/>
+      <c r="L63" s="239"/>
+      <c r="M63" s="239"/>
+      <c r="N63" s="240"/>
     </row>
     <row r="64" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="67" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="195" t="s">
+      <c r="B67" s="213" t="s">
         <v>59</v>
       </c>
-      <c r="C67" s="195"/>
-      <c r="D67" s="195"/>
-      <c r="E67" s="195"/>
-      <c r="F67" s="195"/>
-      <c r="G67" s="195"/>
-      <c r="H67" s="195"/>
-      <c r="I67" s="195"/>
-      <c r="J67" s="195"/>
-      <c r="K67" s="195"/>
-      <c r="L67" s="195"/>
-      <c r="M67" s="195"/>
-      <c r="N67" s="195"/>
+      <c r="C67" s="213"/>
+      <c r="D67" s="213"/>
+      <c r="E67" s="213"/>
+      <c r="F67" s="213"/>
+      <c r="G67" s="213"/>
+      <c r="H67" s="213"/>
+      <c r="I67" s="213"/>
+      <c r="J67" s="213"/>
+      <c r="K67" s="213"/>
+      <c r="L67" s="213"/>
+      <c r="M67" s="213"/>
+      <c r="N67" s="213"/>
     </row>
     <row r="68" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="89"/>
@@ -52232,56 +52235,56 @@
       <c r="N73" s="55"/>
     </row>
     <row r="74" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="238" t="s">
+      <c r="B74" s="225" t="s">
         <v>30</v>
       </c>
-      <c r="C74" s="228" t="s">
+      <c r="C74" s="227" t="s">
         <v>31</v>
       </c>
-      <c r="D74" s="240" t="s">
+      <c r="D74" s="229" t="s">
         <v>32</v>
       </c>
-      <c r="E74" s="228" t="s">
+      <c r="E74" s="227" t="s">
         <v>33</v>
       </c>
-      <c r="F74" s="228" t="s">
+      <c r="F74" s="227" t="s">
         <v>34</v>
       </c>
-      <c r="G74" s="228" t="s">
+      <c r="G74" s="227" t="s">
         <v>10</v>
       </c>
-      <c r="H74" s="228" t="s">
+      <c r="H74" s="227" t="s">
         <v>11</v>
       </c>
-      <c r="I74" s="226" t="s">
+      <c r="I74" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="J74" s="228" t="s">
+      <c r="J74" s="227" t="s">
         <v>35</v>
       </c>
-      <c r="K74" s="228" t="s">
+      <c r="K74" s="227" t="s">
         <v>36</v>
       </c>
-      <c r="L74" s="228" t="s">
+      <c r="L74" s="227" t="s">
         <v>37</v>
       </c>
-      <c r="M74" s="230" t="s">
+      <c r="M74" s="233" t="s">
         <v>38</v>
       </c>
-      <c r="N74" s="231"/>
+      <c r="N74" s="234"/>
     </row>
     <row r="75" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="239"/>
-      <c r="C75" s="229"/>
-      <c r="D75" s="241"/>
-      <c r="E75" s="229"/>
-      <c r="F75" s="229"/>
-      <c r="G75" s="229"/>
-      <c r="H75" s="229"/>
-      <c r="I75" s="227"/>
-      <c r="J75" s="229"/>
-      <c r="K75" s="229"/>
-      <c r="L75" s="229"/>
+      <c r="B75" s="226"/>
+      <c r="C75" s="228"/>
+      <c r="D75" s="230"/>
+      <c r="E75" s="228"/>
+      <c r="F75" s="228"/>
+      <c r="G75" s="228"/>
+      <c r="H75" s="228"/>
+      <c r="I75" s="232"/>
+      <c r="J75" s="228"/>
+      <c r="K75" s="228"/>
+      <c r="L75" s="228"/>
       <c r="M75" s="56" t="s">
         <v>39</v>
       </c>
@@ -52290,24 +52293,24 @@
       </c>
     </row>
     <row r="76" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="242" t="s">
+      <c r="B76" s="241" t="s">
         <v>87</v>
       </c>
-      <c r="C76" s="243"/>
-      <c r="D76" s="243"/>
-      <c r="E76" s="243"/>
-      <c r="F76" s="243"/>
-      <c r="G76" s="243"/>
-      <c r="H76" s="244"/>
+      <c r="C76" s="242"/>
+      <c r="D76" s="242"/>
+      <c r="E76" s="242"/>
+      <c r="F76" s="242"/>
+      <c r="G76" s="242"/>
+      <c r="H76" s="243"/>
       <c r="I76" s="86">
         <f>I63</f>
         <v>1769.9</v>
       </c>
-      <c r="J76" s="245"/>
-      <c r="K76" s="246"/>
-      <c r="L76" s="246"/>
-      <c r="M76" s="246"/>
-      <c r="N76" s="247"/>
+      <c r="J76" s="244"/>
+      <c r="K76" s="245"/>
+      <c r="L76" s="245"/>
+      <c r="M76" s="245"/>
+      <c r="N76" s="246"/>
     </row>
     <row r="77" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="58" t="s">
@@ -52750,44 +52753,44 @@
       </c>
     </row>
     <row r="97" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="232" t="s">
+      <c r="B97" s="235" t="s">
         <v>86</v>
       </c>
-      <c r="C97" s="233"/>
-      <c r="D97" s="233"/>
-      <c r="E97" s="233"/>
-      <c r="F97" s="233"/>
-      <c r="G97" s="233"/>
-      <c r="H97" s="234"/>
+      <c r="C97" s="236"/>
+      <c r="D97" s="236"/>
+      <c r="E97" s="236"/>
+      <c r="F97" s="236"/>
+      <c r="G97" s="236"/>
+      <c r="H97" s="237"/>
       <c r="I97" s="82">
         <f>SUM(I76:I96)</f>
         <v>1769.9</v>
       </c>
-      <c r="J97" s="235"/>
-      <c r="K97" s="236"/>
-      <c r="L97" s="236"/>
-      <c r="M97" s="236"/>
-      <c r="N97" s="237"/>
+      <c r="J97" s="238"/>
+      <c r="K97" s="239"/>
+      <c r="L97" s="239"/>
+      <c r="M97" s="239"/>
+      <c r="N97" s="240"/>
     </row>
     <row r="98" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="99" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="100" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="101" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="195" t="s">
+      <c r="B101" s="213" t="s">
         <v>59</v>
       </c>
-      <c r="C101" s="195"/>
-      <c r="D101" s="195"/>
-      <c r="E101" s="195"/>
-      <c r="F101" s="195"/>
-      <c r="G101" s="195"/>
-      <c r="H101" s="195"/>
-      <c r="I101" s="195"/>
-      <c r="J101" s="195"/>
-      <c r="K101" s="195"/>
-      <c r="L101" s="195"/>
-      <c r="M101" s="195"/>
-      <c r="N101" s="195"/>
+      <c r="C101" s="213"/>
+      <c r="D101" s="213"/>
+      <c r="E101" s="213"/>
+      <c r="F101" s="213"/>
+      <c r="G101" s="213"/>
+      <c r="H101" s="213"/>
+      <c r="I101" s="213"/>
+      <c r="J101" s="213"/>
+      <c r="K101" s="213"/>
+      <c r="L101" s="213"/>
+      <c r="M101" s="213"/>
+      <c r="N101" s="213"/>
     </row>
     <row r="102" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="89"/>
@@ -52897,56 +52900,56 @@
       <c r="N107" s="55"/>
     </row>
     <row r="108" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="238" t="s">
+      <c r="B108" s="225" t="s">
         <v>30</v>
       </c>
-      <c r="C108" s="228" t="s">
+      <c r="C108" s="227" t="s">
         <v>31</v>
       </c>
-      <c r="D108" s="240" t="s">
+      <c r="D108" s="229" t="s">
         <v>32</v>
       </c>
-      <c r="E108" s="228" t="s">
+      <c r="E108" s="227" t="s">
         <v>33</v>
       </c>
-      <c r="F108" s="228" t="s">
+      <c r="F108" s="227" t="s">
         <v>34</v>
       </c>
-      <c r="G108" s="228" t="s">
+      <c r="G108" s="227" t="s">
         <v>10</v>
       </c>
-      <c r="H108" s="228" t="s">
+      <c r="H108" s="227" t="s">
         <v>11</v>
       </c>
-      <c r="I108" s="226" t="s">
+      <c r="I108" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="J108" s="228" t="s">
+      <c r="J108" s="227" t="s">
         <v>35</v>
       </c>
-      <c r="K108" s="228" t="s">
+      <c r="K108" s="227" t="s">
         <v>36</v>
       </c>
-      <c r="L108" s="228" t="s">
+      <c r="L108" s="227" t="s">
         <v>37</v>
       </c>
-      <c r="M108" s="230" t="s">
+      <c r="M108" s="233" t="s">
         <v>38</v>
       </c>
-      <c r="N108" s="231"/>
+      <c r="N108" s="234"/>
     </row>
     <row r="109" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="239"/>
-      <c r="C109" s="229"/>
-      <c r="D109" s="241"/>
-      <c r="E109" s="229"/>
-      <c r="F109" s="229"/>
-      <c r="G109" s="229"/>
-      <c r="H109" s="229"/>
-      <c r="I109" s="227"/>
-      <c r="J109" s="229"/>
-      <c r="K109" s="229"/>
-      <c r="L109" s="229"/>
+      <c r="B109" s="226"/>
+      <c r="C109" s="228"/>
+      <c r="D109" s="230"/>
+      <c r="E109" s="228"/>
+      <c r="F109" s="228"/>
+      <c r="G109" s="228"/>
+      <c r="H109" s="228"/>
+      <c r="I109" s="232"/>
+      <c r="J109" s="228"/>
+      <c r="K109" s="228"/>
+      <c r="L109" s="228"/>
       <c r="M109" s="56" t="s">
         <v>39</v>
       </c>
@@ -52955,24 +52958,24 @@
       </c>
     </row>
     <row r="110" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="242" t="s">
+      <c r="B110" s="241" t="s">
         <v>87</v>
       </c>
-      <c r="C110" s="243"/>
-      <c r="D110" s="243"/>
-      <c r="E110" s="243"/>
-      <c r="F110" s="243"/>
-      <c r="G110" s="243"/>
-      <c r="H110" s="244"/>
+      <c r="C110" s="242"/>
+      <c r="D110" s="242"/>
+      <c r="E110" s="242"/>
+      <c r="F110" s="242"/>
+      <c r="G110" s="242"/>
+      <c r="H110" s="243"/>
       <c r="I110" s="86">
         <f>I97</f>
         <v>1769.9</v>
       </c>
-      <c r="J110" s="245"/>
-      <c r="K110" s="246"/>
-      <c r="L110" s="246"/>
-      <c r="M110" s="246"/>
-      <c r="N110" s="247"/>
+      <c r="J110" s="244"/>
+      <c r="K110" s="245"/>
+      <c r="L110" s="245"/>
+      <c r="M110" s="245"/>
+      <c r="N110" s="246"/>
     </row>
     <row r="111" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="58" t="s">
@@ -53342,44 +53345,44 @@
       <c r="N129" s="81"/>
     </row>
     <row r="130" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="232" t="s">
+      <c r="B130" s="235" t="s">
         <v>86</v>
       </c>
-      <c r="C130" s="233"/>
-      <c r="D130" s="233"/>
-      <c r="E130" s="233"/>
-      <c r="F130" s="233"/>
-      <c r="G130" s="233"/>
-      <c r="H130" s="234"/>
+      <c r="C130" s="236"/>
+      <c r="D130" s="236"/>
+      <c r="E130" s="236"/>
+      <c r="F130" s="236"/>
+      <c r="G130" s="236"/>
+      <c r="H130" s="237"/>
       <c r="I130" s="82">
         <f>SUM(I110:I129)</f>
         <v>1769.9</v>
       </c>
-      <c r="J130" s="235"/>
-      <c r="K130" s="236"/>
-      <c r="L130" s="236"/>
-      <c r="M130" s="236"/>
-      <c r="N130" s="237"/>
+      <c r="J130" s="238"/>
+      <c r="K130" s="239"/>
+      <c r="L130" s="239"/>
+      <c r="M130" s="239"/>
+      <c r="N130" s="240"/>
     </row>
     <row r="131" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="132" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="133" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="134" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="195" t="s">
+      <c r="B134" s="213" t="s">
         <v>59</v>
       </c>
-      <c r="C134" s="195"/>
-      <c r="D134" s="195"/>
-      <c r="E134" s="195"/>
-      <c r="F134" s="195"/>
-      <c r="G134" s="195"/>
-      <c r="H134" s="195"/>
-      <c r="I134" s="195"/>
-      <c r="J134" s="195"/>
-      <c r="K134" s="195"/>
-      <c r="L134" s="195"/>
-      <c r="M134" s="195"/>
-      <c r="N134" s="195"/>
+      <c r="C134" s="213"/>
+      <c r="D134" s="213"/>
+      <c r="E134" s="213"/>
+      <c r="F134" s="213"/>
+      <c r="G134" s="213"/>
+      <c r="H134" s="213"/>
+      <c r="I134" s="213"/>
+      <c r="J134" s="213"/>
+      <c r="K134" s="213"/>
+      <c r="L134" s="213"/>
+      <c r="M134" s="213"/>
+      <c r="N134" s="213"/>
     </row>
     <row r="135" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="89"/>
@@ -53489,56 +53492,56 @@
       <c r="N140" s="55"/>
     </row>
     <row r="141" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="238" t="s">
+      <c r="B141" s="225" t="s">
         <v>30</v>
       </c>
-      <c r="C141" s="228" t="s">
+      <c r="C141" s="227" t="s">
         <v>31</v>
       </c>
-      <c r="D141" s="240" t="s">
+      <c r="D141" s="229" t="s">
         <v>32</v>
       </c>
-      <c r="E141" s="228" t="s">
+      <c r="E141" s="227" t="s">
         <v>33</v>
       </c>
-      <c r="F141" s="228" t="s">
+      <c r="F141" s="227" t="s">
         <v>34</v>
       </c>
-      <c r="G141" s="228" t="s">
+      <c r="G141" s="227" t="s">
         <v>10</v>
       </c>
-      <c r="H141" s="228" t="s">
+      <c r="H141" s="227" t="s">
         <v>11</v>
       </c>
-      <c r="I141" s="226" t="s">
+      <c r="I141" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="J141" s="228" t="s">
+      <c r="J141" s="227" t="s">
         <v>35</v>
       </c>
-      <c r="K141" s="228" t="s">
+      <c r="K141" s="227" t="s">
         <v>36</v>
       </c>
-      <c r="L141" s="228" t="s">
+      <c r="L141" s="227" t="s">
         <v>37</v>
       </c>
-      <c r="M141" s="230" t="s">
+      <c r="M141" s="233" t="s">
         <v>38</v>
       </c>
-      <c r="N141" s="231"/>
+      <c r="N141" s="234"/>
     </row>
     <row r="142" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="239"/>
-      <c r="C142" s="229"/>
-      <c r="D142" s="241"/>
-      <c r="E142" s="229"/>
-      <c r="F142" s="229"/>
-      <c r="G142" s="229"/>
-      <c r="H142" s="229"/>
-      <c r="I142" s="227"/>
-      <c r="J142" s="229"/>
-      <c r="K142" s="229"/>
-      <c r="L142" s="229"/>
+      <c r="B142" s="226"/>
+      <c r="C142" s="228"/>
+      <c r="D142" s="230"/>
+      <c r="E142" s="228"/>
+      <c r="F142" s="228"/>
+      <c r="G142" s="228"/>
+      <c r="H142" s="228"/>
+      <c r="I142" s="232"/>
+      <c r="J142" s="228"/>
+      <c r="K142" s="228"/>
+      <c r="L142" s="228"/>
       <c r="M142" s="56" t="s">
         <v>39</v>
       </c>
@@ -53547,24 +53550,24 @@
       </c>
     </row>
     <row r="143" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="242" t="s">
+      <c r="B143" s="241" t="s">
         <v>87</v>
       </c>
-      <c r="C143" s="243"/>
-      <c r="D143" s="243"/>
-      <c r="E143" s="243"/>
-      <c r="F143" s="243"/>
-      <c r="G143" s="243"/>
-      <c r="H143" s="244"/>
+      <c r="C143" s="242"/>
+      <c r="D143" s="242"/>
+      <c r="E143" s="242"/>
+      <c r="F143" s="242"/>
+      <c r="G143" s="242"/>
+      <c r="H143" s="243"/>
       <c r="I143" s="86">
         <f>I130</f>
         <v>1769.9</v>
       </c>
-      <c r="J143" s="245"/>
-      <c r="K143" s="246"/>
-      <c r="L143" s="246"/>
-      <c r="M143" s="246"/>
-      <c r="N143" s="247"/>
+      <c r="J143" s="244"/>
+      <c r="K143" s="245"/>
+      <c r="L143" s="245"/>
+      <c r="M143" s="245"/>
+      <c r="N143" s="246"/>
     </row>
     <row r="144" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="58" t="s">
@@ -53890,44 +53893,44 @@
       <c r="N160" s="81"/>
     </row>
     <row r="161" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="232" t="s">
+      <c r="B161" s="235" t="s">
         <v>86</v>
       </c>
-      <c r="C161" s="233"/>
-      <c r="D161" s="233"/>
-      <c r="E161" s="233"/>
-      <c r="F161" s="233"/>
-      <c r="G161" s="233"/>
-      <c r="H161" s="234"/>
+      <c r="C161" s="236"/>
+      <c r="D161" s="236"/>
+      <c r="E161" s="236"/>
+      <c r="F161" s="236"/>
+      <c r="G161" s="236"/>
+      <c r="H161" s="237"/>
       <c r="I161" s="82">
         <f>SUM(I143:I160)</f>
         <v>1769.9</v>
       </c>
-      <c r="J161" s="235"/>
-      <c r="K161" s="236"/>
-      <c r="L161" s="236"/>
-      <c r="M161" s="236"/>
-      <c r="N161" s="237"/>
+      <c r="J161" s="238"/>
+      <c r="K161" s="239"/>
+      <c r="L161" s="239"/>
+      <c r="M161" s="239"/>
+      <c r="N161" s="240"/>
     </row>
     <row r="162" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="163" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="164" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="165" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="195" t="s">
+      <c r="B165" s="213" t="s">
         <v>59</v>
       </c>
-      <c r="C165" s="195"/>
-      <c r="D165" s="195"/>
-      <c r="E165" s="195"/>
-      <c r="F165" s="195"/>
-      <c r="G165" s="195"/>
-      <c r="H165" s="195"/>
-      <c r="I165" s="195"/>
-      <c r="J165" s="195"/>
-      <c r="K165" s="195"/>
-      <c r="L165" s="195"/>
-      <c r="M165" s="195"/>
-      <c r="N165" s="195"/>
+      <c r="C165" s="213"/>
+      <c r="D165" s="213"/>
+      <c r="E165" s="213"/>
+      <c r="F165" s="213"/>
+      <c r="G165" s="213"/>
+      <c r="H165" s="213"/>
+      <c r="I165" s="213"/>
+      <c r="J165" s="213"/>
+      <c r="K165" s="213"/>
+      <c r="L165" s="213"/>
+      <c r="M165" s="213"/>
+      <c r="N165" s="213"/>
     </row>
     <row r="166" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="89"/>
@@ -54037,56 +54040,56 @@
       <c r="N171" s="55"/>
     </row>
     <row r="172" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="238" t="s">
+      <c r="B172" s="225" t="s">
         <v>30</v>
       </c>
-      <c r="C172" s="228" t="s">
+      <c r="C172" s="227" t="s">
         <v>31</v>
       </c>
-      <c r="D172" s="240" t="s">
+      <c r="D172" s="229" t="s">
         <v>32</v>
       </c>
-      <c r="E172" s="228" t="s">
+      <c r="E172" s="227" t="s">
         <v>33</v>
       </c>
-      <c r="F172" s="228" t="s">
+      <c r="F172" s="227" t="s">
         <v>34</v>
       </c>
-      <c r="G172" s="228" t="s">
+      <c r="G172" s="227" t="s">
         <v>10</v>
       </c>
-      <c r="H172" s="228" t="s">
+      <c r="H172" s="227" t="s">
         <v>11</v>
       </c>
-      <c r="I172" s="226" t="s">
+      <c r="I172" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="J172" s="228" t="s">
+      <c r="J172" s="227" t="s">
         <v>35</v>
       </c>
-      <c r="K172" s="228" t="s">
+      <c r="K172" s="227" t="s">
         <v>36</v>
       </c>
-      <c r="L172" s="228" t="s">
+      <c r="L172" s="227" t="s">
         <v>37</v>
       </c>
-      <c r="M172" s="230" t="s">
+      <c r="M172" s="233" t="s">
         <v>38</v>
       </c>
-      <c r="N172" s="231"/>
+      <c r="N172" s="234"/>
     </row>
     <row r="173" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="239"/>
-      <c r="C173" s="229"/>
-      <c r="D173" s="241"/>
-      <c r="E173" s="229"/>
-      <c r="F173" s="229"/>
-      <c r="G173" s="229"/>
-      <c r="H173" s="229"/>
-      <c r="I173" s="227"/>
-      <c r="J173" s="229"/>
-      <c r="K173" s="229"/>
-      <c r="L173" s="229"/>
+      <c r="B173" s="226"/>
+      <c r="C173" s="228"/>
+      <c r="D173" s="230"/>
+      <c r="E173" s="228"/>
+      <c r="F173" s="228"/>
+      <c r="G173" s="228"/>
+      <c r="H173" s="228"/>
+      <c r="I173" s="232"/>
+      <c r="J173" s="228"/>
+      <c r="K173" s="228"/>
+      <c r="L173" s="228"/>
       <c r="M173" s="56" t="s">
         <v>39</v>
       </c>
@@ -54095,24 +54098,24 @@
       </c>
     </row>
     <row r="174" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="242" t="s">
+      <c r="B174" s="241" t="s">
         <v>87</v>
       </c>
-      <c r="C174" s="243"/>
-      <c r="D174" s="243"/>
-      <c r="E174" s="243"/>
-      <c r="F174" s="243"/>
-      <c r="G174" s="243"/>
-      <c r="H174" s="244"/>
+      <c r="C174" s="242"/>
+      <c r="D174" s="242"/>
+      <c r="E174" s="242"/>
+      <c r="F174" s="242"/>
+      <c r="G174" s="242"/>
+      <c r="H174" s="243"/>
       <c r="I174" s="86">
         <f>I161</f>
         <v>1769.9</v>
       </c>
-      <c r="J174" s="245"/>
-      <c r="K174" s="246"/>
-      <c r="L174" s="246"/>
-      <c r="M174" s="246"/>
-      <c r="N174" s="247"/>
+      <c r="J174" s="244"/>
+      <c r="K174" s="245"/>
+      <c r="L174" s="245"/>
+      <c r="M174" s="245"/>
+      <c r="N174" s="246"/>
     </row>
     <row r="175" spans="2:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="58" t="s">
@@ -54178,31 +54181,31 @@
       </c>
     </row>
     <row r="178" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="242" t="s">
+      <c r="B178" s="241" t="s">
         <v>19</v>
       </c>
-      <c r="C178" s="243"/>
-      <c r="D178" s="243"/>
-      <c r="E178" s="243"/>
-      <c r="F178" s="243"/>
-      <c r="G178" s="243"/>
-      <c r="H178" s="244"/>
+      <c r="C178" s="242"/>
+      <c r="D178" s="242"/>
+      <c r="E178" s="242"/>
+      <c r="F178" s="242"/>
+      <c r="G178" s="242"/>
+      <c r="H178" s="243"/>
       <c r="I178" s="86">
         <f>SUM(I174:I177)</f>
         <v>1769.9</v>
       </c>
-      <c r="J178" s="245"/>
-      <c r="K178" s="246"/>
-      <c r="L178" s="246"/>
-      <c r="M178" s="246"/>
-      <c r="N178" s="247"/>
+      <c r="J178" s="244"/>
+      <c r="K178" s="245"/>
+      <c r="L178" s="245"/>
+      <c r="M178" s="245"/>
+      <c r="N178" s="246"/>
     </row>
     <row r="179" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="180" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M180" s="225" t="s">
+      <c r="M180" s="247" t="s">
         <v>27</v>
       </c>
-      <c r="N180" s="225"/>
+      <c r="N180" s="247"/>
     </row>
     <row r="181" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="182" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -54219,90 +54222,6 @@
     <row r="193" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="B35:N35"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="J44:N44"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="J63:N63"/>
-    <mergeCell ref="B67:N67"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="B76:H76"/>
-    <mergeCell ref="J76:N76"/>
-    <mergeCell ref="B97:H97"/>
-    <mergeCell ref="J97:N97"/>
-    <mergeCell ref="B101:N101"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="I74:I75"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="K74:K75"/>
-    <mergeCell ref="L74:L75"/>
-    <mergeCell ref="H108:H109"/>
-    <mergeCell ref="I108:I109"/>
-    <mergeCell ref="J108:J109"/>
-    <mergeCell ref="K108:K109"/>
-    <mergeCell ref="L108:L109"/>
-    <mergeCell ref="M108:N108"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="F108:F109"/>
-    <mergeCell ref="G108:G109"/>
-    <mergeCell ref="B110:H110"/>
-    <mergeCell ref="J110:N110"/>
-    <mergeCell ref="B130:H130"/>
-    <mergeCell ref="J130:N130"/>
-    <mergeCell ref="B134:N134"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="D141:D142"/>
-    <mergeCell ref="E141:E142"/>
-    <mergeCell ref="F141:F142"/>
-    <mergeCell ref="M141:N141"/>
-    <mergeCell ref="B143:H143"/>
-    <mergeCell ref="J143:N143"/>
-    <mergeCell ref="B161:H161"/>
-    <mergeCell ref="J161:N161"/>
-    <mergeCell ref="B165:N165"/>
-    <mergeCell ref="G141:G142"/>
-    <mergeCell ref="H141:H142"/>
-    <mergeCell ref="I141:I142"/>
-    <mergeCell ref="J141:J142"/>
-    <mergeCell ref="K141:K142"/>
-    <mergeCell ref="L141:L142"/>
     <mergeCell ref="B174:H174"/>
     <mergeCell ref="J174:N174"/>
     <mergeCell ref="B178:H178"/>
@@ -54320,6 +54239,90 @@
     <mergeCell ref="E172:E173"/>
     <mergeCell ref="F172:F173"/>
     <mergeCell ref="G172:G173"/>
+    <mergeCell ref="B143:H143"/>
+    <mergeCell ref="J143:N143"/>
+    <mergeCell ref="B161:H161"/>
+    <mergeCell ref="J161:N161"/>
+    <mergeCell ref="B165:N165"/>
+    <mergeCell ref="G141:G142"/>
+    <mergeCell ref="H141:H142"/>
+    <mergeCell ref="I141:I142"/>
+    <mergeCell ref="J141:J142"/>
+    <mergeCell ref="K141:K142"/>
+    <mergeCell ref="L141:L142"/>
+    <mergeCell ref="B110:H110"/>
+    <mergeCell ref="J110:N110"/>
+    <mergeCell ref="B130:H130"/>
+    <mergeCell ref="J130:N130"/>
+    <mergeCell ref="B134:N134"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="D141:D142"/>
+    <mergeCell ref="E141:E142"/>
+    <mergeCell ref="F141:F142"/>
+    <mergeCell ref="M141:N141"/>
+    <mergeCell ref="H108:H109"/>
+    <mergeCell ref="I108:I109"/>
+    <mergeCell ref="J108:J109"/>
+    <mergeCell ref="K108:K109"/>
+    <mergeCell ref="L108:L109"/>
+    <mergeCell ref="M108:N108"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="B76:H76"/>
+    <mergeCell ref="J76:N76"/>
+    <mergeCell ref="B97:H97"/>
+    <mergeCell ref="J97:N97"/>
+    <mergeCell ref="B101:N101"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="K74:K75"/>
+    <mergeCell ref="L74:L75"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="J44:N44"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="J63:N63"/>
+    <mergeCell ref="B67:N67"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="B35:N35"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="56" orientation="landscape" r:id="rId1"/>
